--- a/Proteomics/Terminal/analysis/02_gene-enrichment/output/GO_gsea_sva.xlsx
+++ b/Proteomics/Terminal/analysis/02_gene-enrichment/output/GO_gsea_sva.xlsx
@@ -9,14 +9,15 @@
     <sheet name="AF_vs_Sham_LA" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="AF_vs_Sham_RA" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="AverageDiseaseEffect" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Metformin_vs_AF_LA" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Metformin_vs_AF_RA" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="AverageTreatmentEffect" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Metformin_vs_AF_LA" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Metformin_vs_AF_RA" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="387">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -66,10 +67,10 @@
     <t xml:space="preserve">mitochondrial respiratory chain complex I assembly</t>
   </si>
   <si>
-    <t xml:space="preserve">tags=74%, list=25%, signal=56%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000021948/ENSECAG00000027684/ENSECAG00000017188/ENSECAG00000014140/ENSECAG00000000402/ENSECAG00000011681/ENSECAG00000010580/ENSECAG00000021275/ENSECAG00000000682/ENSECAG00000018238/ENSECAG00000017656/ENSECAG00000013454/ENSECAG00000009102/ENSECAG00000039611/ENSECAG00000020610/ENSECAG00000020674/ENSECAG00000015610/ENSECAG00000027681/ENSECAG00000010175/ENSECAG00000017527/ENSECAG00000019013/ENSECAG00000015914/ENSECAG00000049440</t>
+    <t xml:space="preserve">tags=74%, list=19%, signal=61%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000017188/ENSECAG00000027684/ENSECAG00000000402/ENSECAG00000011681/ENSECAG00000021948/ENSECAG00000021275/ENSECAG00000018238/ENSECAG00000027675/ENSECAG00000000682/ENSECAG00000013454/ENSECAG00000020674/ENSECAG00000020610/ENSECAG00000017656/ENSECAG00000039611/ENSECAG00000027681/ENSECAG00000023456/ENSECAG00000010580/ENSECAG00000009102/ENSECAG00000015610/ENSECAG00000015836/ENSECAG00000010175/ENSECAG00000049440/ENSECAG00000015914</t>
   </si>
   <si>
     <t xml:space="preserve">AF_vs_Sham_LA</t>
@@ -81,91 +82,607 @@
     <t xml:space="preserve">up</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:0016310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphorylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=36%, list=13%, signal=33%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000019280/ENSECAG00000011235/ENSECAG00000016439/ENSECAG00000006771/ENSECAG00000023067/ENSECAG00000018796/ENSECAG00000015087/ENSECAG00000013449/ENSECAG00000015944/ENSECAG00000019235/ENSECAG00000022585/ENSECAG00000010080/ENSECAG00000016632/ENSECAG00000018332/ENSECAG00000014460/ENSECAG00000008264/ENSECAG00000012072/ENSECAG00000009799/ENSECAG00000018176/ENSECAG00000022822/ENSECAG00000020168/ENSECAG00000017840/ENSECAG00000019955/ENSECAG00000009872/ENSECAG00000016283/ENSECAG00000014017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0060271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cilium assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=47%, list=9%, signal=43%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000028265/ENSECAG00000017556/ENSECAG00000005460/ENSECAG00000011638/ENSECAG00000017216/ENSECAG00000006526/ENSECAG00000022535/ENSECAG00000021278/ENSECAG00000016257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein phosphorylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=50%, list=22%, signal=40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000023690/ENSECAG00000042020/ENSECAG00000017000/ENSECAG00000013890/ENSECAG00000007599/ENSECAG00000024299/ENSECAG00000016977/ENSECAG00000019290/ENSECAG00000006771/ENSECAG00000018307/ENSECAG00000002756/ENSECAG00000022585/ENSECAG00000012967/ENSECAG00000014460/ENSECAG00000008264/ENSECAG00000007795/ENSECAG00000012072/ENSECAG00000018176/ENSECAG00000025015/ENSECAG00000018489/ENSECAG00000008775/ENSECAG00000022617/ENSECAG00000017840/ENSECAG00000009872/ENSECAG00000019786/ENSECAG00000016283/ENSECAG00000014017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitochondrial electron transport, NADH to ubiquinone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=79%, list=19%, signal=64%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000027684/ENSECAG00000000402/ENSECAG00000021275/ENSECAG00000018238/ENSECAG00000027675/ENSECAG00000021690/ENSECAG00000013454/ENSECAG00000014853/ENSECAG00000039611/ENSECAG00000027681/ENSECAG00000009102/ENSECAG00000000749/ENSECAG00000021477/ENSECAG00000010175/ENSECAG00000015914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubiquitin-dependent protein catabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=62%, list=34%, signal=42%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000024086/ENSECAG00000014306/ENSECAG00000010572/ENSECAG00000011374/ENSECAG00000017459/ENSECAG00000015733/ENSECAG00000016109/ENSECAG00000006675/ENSECAG00000050063/ENSECAG00000020597/ENSECAG00000023505/ENSECAG00000014495/ENSECAG00000026883/ENSECAG00000024190/ENSECAG00000004645/ENSECAG00000014002/ENSECAG00000012273/ENSECAG00000004792/ENSECAG00000000064/ENSECAG00000003103/ENSECAG00000015528/ENSECAG00000019235/ENSECAG00000019466/ENSECAG00000009606/ENSECAG00000013260/ENSECAG00000011062/ENSECAG00000010851/ENSECAG00000024013/ENSECAG00000024404/ENSECAG00000022815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0030198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extracellular matrix organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=63%, list=21%, signal=50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000021663/ENSECAG00000024769/ENSECAG00000038712/ENSECAG00000000480/ENSECAG00000013693/ENSECAG00000016615/ENSECAG00000018101/ENSECAG00000010085/ENSECAG00000023841/ENSECAG00000007861/ENSECAG00000020193/ENSECAG00000021314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0032880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of protein localization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=70%, list=12%, signal=62%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000008511/ENSECAG00000002756/ENSECAG00000018948/ENSECAG00000008264/ENSECAG00000016438/ENSECAG00000022426/ENSECAG00000010711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">axon guidance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=58%, list=11%, signal=52%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000012818/ENSECAG00000007818/ENSECAG00000023122/ENSECAG00000022447/ENSECAG00000023844/ENSECAG00000002810/ENSECAG00000018670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0016567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein ubiquitination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=64%, list=32%, signal=44%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000011717/ENSECAG00000011374/ENSECAG00000017459/ENSECAG00000015733/ENSECAG00000016109/ENSECAG00000006675/ENSECAG00000022018/ENSECAG00000050063/ENSECAG00000023505/ENSECAG00000014495/ENSECAG00000026883/ENSECAG00000004645/ENSECAG00000014002/ENSECAG00000012273/ENSECAG00000004792/ENSECAG00000018773/ENSECAG00000015528/ENSECAG00000019466/ENSECAG00000009606/ENSECAG00000008264/ENSECAG00000013404/ENSECAG00000010851/ENSECAG00000021385/ENSECAG00000010515/ENSECAG00000024404</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0005747</t>
   </si>
   <si>
     <t xml:space="preserve">mitochondrial respiratory chain complex I</t>
   </si>
   <si>
-    <t xml:space="preserve">tags=84%, list=28%, signal=61%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000021948/ENSECAG00000027684/ENSECAG00000017188/ENSECAG00000000402/ENSECAG00000022520/ENSECAG00000011681/ENSECAG00000021275/ENSECAG00000018123/ENSECAG00000000682/ENSECAG00000018238/ENSECAG00000014853/ENSECAG00000017656/ENSECAG00000013454/ENSECAG00000021690/ENSECAG00000009102/ENSECAG00000039611/ENSECAG00000020610/ENSECAG00000020674/ENSECAG00000015610/ENSECAG00000009904/ENSECAG00000027681/ENSECAG00000010175/ENSECAG00000015914/ENSECAG00000049440/ENSECAG00000021477/ENSECAG00000004655</t>
+    <t xml:space="preserve">tags=84%, list=19%, signal=69%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000017188/ENSECAG00000027684/ENSECAG00000022520/ENSECAG00000000402/ENSECAG00000011681/ENSECAG00000021948/ENSECAG00000021275/ENSECAG00000018238/ENSECAG00000027675/ENSECAG00000021690/ENSECAG00000000682/ENSECAG00000013454/ENSECAG00000020674/ENSECAG00000014853/ENSECAG00000020610/ENSECAG00000017656/ENSECAG00000039611/ENSECAG00000018123/ENSECAG00000027681/ENSECAG00000009102/ENSECAG00000015610/ENSECAG00000015836/ENSECAG00000021477/ENSECAG00000010175/ENSECAG00000049440/ENSECAG00000015914</t>
   </si>
   <si>
     <t xml:space="preserve">cellular_component</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:0005743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitochondrial inner membrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=57%, list=21%, signal=47%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000012512/ENSECAG00000013993/ENSECAG00000011458/ENSECAG00000008844/ENSECAG00000017188/ENSECAG00000014836/ENSECAG00000000160/ENSECAG00000027684/ENSECAG00000022520/ENSECAG00000027692/ENSECAG00000000402/ENSECAG00000011681/ENSECAG00000021948/ENSECAG00000019064/ENSECAG00000016937/ENSECAG00000021275/ENSECAG00000014543/ENSECAG00000041550/ENSECAG00000018238/ENSECAG00000027675/ENSECAG00000010152/ENSECAG00000009487/ENSECAG00000000682/ENSECAG00000013454/ENSECAG00000020674/ENSECAG00000014853/ENSECAG00000002088/ENSECAG00000011722/ENSECAG00000020610/ENSECAG00000017656/ENSECAG00000004824/ENSECAG00000012469/ENSECAG00000039611/ENSECAG00000018123/ENSECAG00000027681/ENSECAG00000024248/ENSECAG00000024045/ENSECAG00000000017/ENSECAG00000018599/ENSECAG00000000397/ENSECAG00000013738/ENSECAG00000009780/ENSECAG00000009102/ENSECAG00000015610/ENSECAG00000015836/ENSECAG00000000861/ENSECAG00000024569/ENSECAG00000021477/ENSECAG00000010175/ENSECAG00000021501/ENSECAG00000049440/ENSECAG00000012304/ENSECAG00000000643/ENSECAG00000015914/ENSECAG00000009059/ENSECAG00000056021/ENSECAG00000011758/ENSECAG00000017769/ENSECAG00000021561/ENSECAG00000011331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extracellular space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=26%, list=16%, signal=23%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000014282/ENSECAG00000021663/ENSECAG00000014892/ENSECAG00000004871/ENSECAG00000019596/ENSECAG00000013486/ENSECAG00000024769/ENSECAG00000015369/ENSECAG00000038712/ENSECAG00000008726/ENSECAG00000018455/ENSECAG00000014867/ENSECAG00000018248/ENSECAG00000011727/ENSECAG00000013693/ENSECAG00000019043/ENSECAG00000017025/ENSECAG00000008303/ENSECAG00000008221/ENSECAG00000018113/ENSECAG00000012395/ENSECAG00000018126/ENSECAG00000020887/ENSECAG00000017668/ENSECAG00000000701/ENSECAG00000013874/ENSECAG00000035543/ENSECAG00000013035/ENSECAG00000016720/ENSECAG00000024138/ENSECAG00000011942/ENSECAG00000022546/ENSECAG00000020200/ENSECAG00000012670/ENSECAG00000019633/ENSECAG00000018101/ENSECAG00000007047/ENSECAG00000014688/ENSECAG00000024049/ENSECAG00000004201/ENSECAG00000006991/ENSECAG00000022165/ENSECAG00000008913/ENSECAG00000023841/ENSECAG00000012910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0031012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extracellular matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=60%, list=13%, signal=53%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000020789/ENSECAG00000017802/ENSECAG00000038712/ENSECAG00000018455/ENSECAG00000021047/ENSECAG00000000480/ENSECAG00000018248/ENSECAG00000017905/ENSECAG00000013693/ENSECAG00000019043/ENSECAG00000019691/ENSECAG00000020887/ENSECAG00000018717/ENSECAG00000000701/ENSECAG00000016615/ENSECAG00000022731/ENSECAG00000018101/ENSECAG00000007047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0005576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extracellular region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=28%, list=14%, signal=26%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000014282/ENSECAG00000021663/ENSECAG00000014892/ENSECAG00000020789/ENSECAG00000019596/ENSECAG00000024267/ENSECAG00000015369/ENSECAG00000038712/ENSECAG00000008726/ENSECAG00000018584/ENSECAG00000018455/ENSECAG00000014867/ENSECAG00000011727/ENSECAG00000010778/ENSECAG00000012395/ENSECAG00000008859/ENSECAG00000019691/ENSECAG00000018717/ENSECAG00000000701/ENSECAG00000016615/ENSECAG00000013874/ENSECAG00000025065/ENSECAG00000023141/ENSECAG00000013035/ENSECAG00000023844/ENSECAG00000024138/ENSECAG00000020413/ENSECAG00000011627/ENSECAG00000022731/ENSECAG00000039018/ENSECAG00000012670/ENSECAG00000015794/ENSECAG00000019633/ENSECAG00000018101/ENSECAG00000007047/ENSECAG00000004201/ENSECAG00000021766/ENSECAG00000009462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0042383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sarcolemma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=54%, list=21%, signal=44%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000013832/ENSECAG00000019476/ENSECAG00000002919/ENSECAG00000022083/ENSECAG00000020887/ENSECAG00000018717/ENSECAG00000006772/ENSECAG00000016720/ENSECAG00000023844/ENSECAG00000037857/ENSECAG00000047470/ENSECAG00000022731/ENSECAG00000012670/ENSECAG00000057698/ENSECAG00000020715/ENSECAG00000022498/ENSECAG00000007684/ENSECAG00000015834/ENSECAG00000010052/ENSECAG00000015514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0062023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collagen-containing extracellular matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=50%, list=12%, signal=45%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000024769/ENSECAG00000018455/ENSECAG00000000480/ENSECAG00000017905/ENSECAG00000013693/ENSECAG00000019043/ENSECAG00000010778/ENSECAG00000019691/ENSECAG00000020887/ENSECAG00000000701/ENSECAG00000035543/ENSECAG00000025065/ENSECAG00000022731/ENSECAG00000012670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0005794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golgi apparatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=37%, list=12%, signal=34%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000012094/ENSECAG00000024471/ENSECAG00000022739/ENSECAG00000005661/ENSECAG00000012506/ENSECAG00000019125/ENSECAG00000013383/ENSECAG00000015229/ENSECAG00000006741/ENSECAG00000004645/ENSECAG00000019509/ENSECAG00000017521/ENSECAG00000041933/ENSECAG00000008697/ENSECAG00000014825/ENSECAG00000031341/ENSECAG00000010780/ENSECAG00000051009/ENSECAG00000024607/ENSECAG00000000124/ENSECAG00000021178/ENSECAG00000022950/ENSECAG00000038893/ENSECAG00000013245/ENSECAG00000012270/ENSECAG00000019611/ENSECAG00000012967/ENSECAG00000014460/ENSECAG00000019630/ENSECAG00000018176/ENSECAG00000013404/ENSECAG00000024390/ENSECAG00000022341/ENSECAG00000021929/ENSECAG00000013718/ENSECAG00000021359/ENSECAG00000016257/ENSECAG00000021898/ENSECAG00000014017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0005751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitochondrial respiratory chain complex IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=80%, list=11%, signal=72%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000012512/ENSECAG00000011458/ENSECAG00000000160/ENSECAG00000027692/ENSECAG00000007968/ENSECAG00000011722/ENSECAG00000004824/ENSECAG00000012469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0070469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respirasome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=80%, list=17%, signal=67%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000017188/ENSECAG00000027684/ENSECAG00000022520/ENSECAG00000027692/ENSECAG00000011681/ENSECAG00000021275/ENSECAG00000018238/ENSECAG00000020674/ENSECAG00000020610/ENSECAG00000017656/ENSECAG00000004824/ENSECAG00000039611/ENSECAG00000018123/ENSECAG00000027681/ENSECAG00000015836/ENSECAG00000021477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0005604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basement membrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=63%, list=13%, signal=55%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000021663/ENSECAG00000015369/ENSECAG00000018584/ENSECAG00000018455/ENSECAG00000008303/ENSECAG00000000701/ENSECAG00000016615/ENSECAG00000013874/ENSECAG00000023141/ENSECAG00000023844/ENSECAG00000012670/ENSECAG00000018101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0030018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z disc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=45%, list=13%, signal=40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000019844/ENSECAG00000013832/ENSECAG00000023122/ENSECAG00000020005/ENSECAG00000009009/ENSECAG00000010808/ENSECAG00000019476/ENSECAG00000002919/ENSECAG00000015157/ENSECAG00000022203/ENSECAG00000020592/ENSECAG00000017896/ENSECAG00000008577/ENSECAG00000012507/ENSECAG00000016720/ENSECAG00000010616/ENSECAG00000024273/ENSECAG00000020463/ENSECAG00000020816/ENSECAG00000021777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0005762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitochondrial large ribosomal subunit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=70%, list=13%, signal=61%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000020931/ENSECAG00000012110/ENSECAG00000007635/ENSECAG00000018545/ENSECAG00000048211/ENSECAG00000008987/ENSECAG00000014964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0005882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intermediate filament</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=56%, list=11%, signal=50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000013832/ENSECAG00000022890/ENSECAG00000011097/ENSECAG00000016987/ENSECAG00000020592/ENSECAG00000004216/ENSECAG00000011017/ENSECAG00000010701/ENSECAG00000020036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0005813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">centrosome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=35%, list=21%, signal=29%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000003510/ENSECAG00000016353/ENSECAG00000005572/ENSECAG00000020276/ENSECAG00000004434/ENSECAG00000011275/ENSECAG00000016701/ENSECAG00000014291/ENSECAG00000022158/ENSECAG00000015563/ENSECAG00000010780/ENSECAG00000006850/ENSECAG00000020218/ENSECAG00000017556/ENSECAG00000022585/ENSECAG00000012600/ENSECAG00000015929/ENSECAG00000016168/ENSECAG00000006526/ENSECAG00000018489/ENSECAG00000022136/ENSECAG00000009872/ENSECAG00000022855/ENSECAG00000010711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0030864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cortical actin cytoskeleton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=61%, list=24%, signal=47%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000021886/ENSECAG00000009009/ENSECAG00000019476/ENSECAG00000022083/ENSECAG00000015460/ENSECAG00000011792/ENSECAG00000010616/ENSECAG00000021777/ENSECAG00000018435/ENSECAG00000021297/ENSECAG00000024788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0005930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">axoneme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=25%, list=3%, signal=24%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000007701/ENSECAG00000021278/ENSECAG00000016257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0010008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endosome membrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=42%, list=18%, signal=35%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000019509/ENSECAG00000011667/ENSECAG00000014002/ENSECAG00000028265/ENSECAG00000039088/ENSECAG00000022158/ENSECAG00000006850/ENSECAG00000017566/ENSECAG00000011638/ENSECAG00000009844/ENSECAG00000017216/ENSECAG00000026807/ENSECAG00000017473/ENSECAG00000010711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0022625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cytosolic large ribosomal subunit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=48%, list=19%, signal=39%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000010157/ENSECAG00000020665/ENSECAG00000026813/ENSECAG00000008548/ENSECAG00000008403/ENSECAG00000024079/ENSECAG00000021065/ENSECAG00000015258/ENSECAG00000009188/ENSECAG00000000008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0005770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">late endosome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=42%, list=14%, signal=36%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000019509/ENSECAG00000007123/ENSECAG00000018146/ENSECAG00000017566/ENSECAG00000014460/ENSECAG00000044183/ENSECAG00000012072/ENSECAG00000013718/ENSECAG00000004362/ENSECAG00000010711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0042995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell projection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=41%, list=16%, signal=35%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000014892/ENSECAG00000015467/ENSECAG00000007818/ENSECAG00000021886/ENSECAG00000009009/ENSECAG00000019476/ENSECAG00000024625/ENSECAG00000022447/ENSECAG00000004216/ENSECAG00000010267/ENSECAG00000011792/ENSECAG00000022965/ENSECAG00000015794/ENSECAG00000021777/ENSECAG00000002920/ENSECAG00000022498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0031966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitochondrial membrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=55%, list=22%, signal=43%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000013993/ENSECAG00000000160/ENSECAG00000027684/ENSECAG00000027679/ENSECAG00000027692/ENSECAG00000015142/ENSECAG00000007968/ENSECAG00000013454/ENSECAG00000012469/ENSECAG00000024248/ENSECAG00000023456/ENSECAG00000023135/ENSECAG00000049440/ENSECAG00000012304/ENSECAG00000015321/ENSECAG00000011758/ENSECAG00000022627/ENSECAG00000036379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0005524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=29%, list=22%, signal=26%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000023690/ENSECAG00000007349/ENSECAG00000042020/ENSECAG00000007671/ENSECAG00000000558/ENSECAG00000019831/ENSECAG00000020633/ENSECAG00000017000/ENSECAG00000016353/ENSECAG00000021989/ENSECAG00000013890/ENSECAG00000024346/ENSECAG00000019280/ENSECAG00000008963/ENSECAG00000014002/ENSECAG00000007599/ENSECAG00000012273/ENSECAG00000028265/ENSECAG00000011235/ENSECAG00000016701/ENSECAG00000024299/ENSECAG00000009275/ENSECAG00000016977/ENSECAG00000017015/ENSECAG00000003503/ENSECAG00000019290/ENSECAG00000006771/ENSECAG00000022158/ENSECAG00000018307/ENSECAG00000023067/ENSECAG00000008511/ENSECAG00000018796/ENSECAG00000002756/ENSECAG00000021223/ENSECAG00000015087/ENSECAG00000013449/ENSECAG00000015175/ENSECAG00000022574/ENSECAG00000020218/ENSECAG00000017883/ENSECAG00000024315/ENSECAG00000015944/ENSECAG00000035260/ENSECAG00000016526/ENSECAG00000011638/ENSECAG00000013447/ENSECAG00000021478/ENSECAG00000022585/ENSECAG00000010080/ENSECAG00000016632/ENSECAG00000018332/ENSECAG00000015929/ENSECAG00000012967/ENSECAG00000018948/ENSECAG00000014460/ENSECAG00000008264/ENSECAG00000007795/ENSECAG00000017216/ENSECAG00000012072/ENSECAG00000009799/ENSECAG00000018176/ENSECAG00000019121/ENSECAG00000025015/ENSECAG00000021823/ENSECAG00000007103/ENSECAG00000018489/ENSECAG00000014586/ENSECAG00000008046/ENSECAG00000022822/ENSECAG00000022426/ENSECAG00000014365/ENSECAG00000020168/ENSECAG00000008775/ENSECAG00000022617/ENSECAG00000017840/ENSECAG00000016257/ENSECAG00000009872/ENSECAG00000019786/ENSECAG00000016283/ENSECAG00000015548/ENSECAG00000014017/ENSECAG00000010711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">molecular_function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0004672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein kinase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=48%, list=22%, signal=38%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000023690/ENSECAG00000042020/ENSECAG00000017000/ENSECAG00000013890/ENSECAG00000007599/ENSECAG00000024299/ENSECAG00000016977/ENSECAG00000019290/ENSECAG00000006771/ENSECAG00000018307/ENSECAG00000002756/ENSECAG00000022585/ENSECAG00000010080/ENSECAG00000012967/ENSECAG00000014460/ENSECAG00000008264/ENSECAG00000007795/ENSECAG00000012072/ENSECAG00000018176/ENSECAG00000025015/ENSECAG00000018489/ENSECAG00000022822/ENSECAG00000020168/ENSECAG00000008775/ENSECAG00000022617/ENSECAG00000017840/ENSECAG00000009872/ENSECAG00000019786/ENSECAG00000014017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0000166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nucleotide binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=28%, list=18%, signal=27%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000044625/ENSECAG00000023690/ENSECAG00000042020/ENSECAG00000007671/ENSECAG00000000558/ENSECAG00000019831/ENSECAG00000020633/ENSECAG00000017000/ENSECAG00000016353/ENSECAG00000021989/ENSECAG00000013890/ENSECAG00000019915/ENSECAG00000024346/ENSECAG00000019280/ENSECAG00000008963/ENSECAG00000014002/ENSECAG00000012273/ENSECAG00000028265/ENSECAG00000011552/ENSECAG00000011235/ENSECAG00000016701/ENSECAG00000024299/ENSECAG00000017724/ENSECAG00000014872/ENSECAG00000009275/ENSECAG00000016977/ENSECAG00000017015/ENSECAG00000033788/ENSECAG00000018608/ENSECAG00000006771/ENSECAG00000022158/ENSECAG00000018307/ENSECAG00000023067/ENSECAG00000008511/ENSECAG00000018796/ENSECAG00000021223/ENSECAG00000015087/ENSECAG00000013449/ENSECAG00000015175/ENSECAG00000020218/ENSECAG00000009169/ENSECAG00000017883/ENSECAG00000024315/ENSECAG00000015944/ENSECAG00000011777/ENSECAG00000017366/ENSECAG00000009727/ENSECAG00000016526/ENSECAG00000017534/ENSECAG00000011638/ENSECAG00000013447/ENSECAG00000021478/ENSECAG00000013659/ENSECAG00000013133/ENSECAG00000000102/ENSECAG00000022585/ENSECAG00000010080/ENSECAG00000016632/ENSECAG00000018332/ENSECAG00000015929/ENSECAG00000019611/ENSECAG00000018948/ENSECAG00000014460/ENSECAG00000008264/ENSECAG00000017216/ENSECAG00000012072/ENSECAG00000009799/ENSECAG00000018176/ENSECAG00000019121/ENSECAG00000025015/ENSECAG00000021823/ENSECAG00000007103/ENSECAG00000014586/ENSECAG00000022822/ENSECAG00000022341/ENSECAG00000014365/ENSECAG00000021929/ENSECAG00000020168/ENSECAG00000008775/ENSECAG00000022617/ENSECAG00000017840/ENSECAG00000016257/ENSECAG00000009872/ENSECAG00000019786/ENSECAG00000015548/ENSECAG00000014017/ENSECAG00000010711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0016301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=31%, list=13%, signal=28%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000006771/ENSECAG00000023067/ENSECAG00000018796/ENSECAG00000015087/ENSECAG00000013449/ENSECAG00000015944/ENSECAG00000022585/ENSECAG00000010080/ENSECAG00000016632/ENSECAG00000018332/ENSECAG00000014460/ENSECAG00000008264/ENSECAG00000012072/ENSECAG00000009799/ENSECAG00000018176/ENSECAG00000025015/ENSECAG00000022822/ENSECAG00000020168/ENSECAG00000019955/ENSECAG00000009872/ENSECAG00000016283/ENSECAG00000014017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0008137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADH dehydrogenase (ubiquinone) activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=86%, list=19%, signal=70%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000017188/ENSECAG00000027684/ENSECAG00000000402/ENSECAG00000021275/ENSECAG00000027675/ENSECAG00000013454/ENSECAG00000017656/ENSECAG00000027681/ENSECAG00000009102/ENSECAG00000021477/ENSECAG00000010175/ENSECAG00000015914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0050840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extracellular matrix binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=64%, list=10%, signal=57%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000021663/ENSECAG00000019043/ENSECAG00000008859/ENSECAG00000018717/ENSECAG00000016615/ENSECAG00000013874/ENSECAG00000020413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0004674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein serine/threonine kinase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=54%, list=17%, signal=46%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000024339/ENSECAG00000021471/ENSECAG00000049239/ENSECAG00000023690/ENSECAG00000017000/ENSECAG00000013890/ENSECAG00000007599/ENSECAG00000024299/ENSECAG00000016977/ENSECAG00000006771/ENSECAG00000018307/ENSECAG00000022585/ENSECAG00000010080/ENSECAG00000012967/ENSECAG00000014460/ENSECAG00000008264/ENSECAG00000025015/ENSECAG00000018489/ENSECAG00000020168/ENSECAG00000022617/ENSECAG00000017840/ENSECAG00000009872/ENSECAG00000019786/ENSECAG00000016283/ENSECAG00000014017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0051015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actin filament binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=55%, list=29%, signal=40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000003398/ENSECAG00000019844/ENSECAG00000021886/ENSECAG00000009009/ENSECAG00000019476/ENSECAG00000010107/ENSECAG00000004725/ENSECAG00000024991/ENSECAG00000017325/ENSECAG00000014009/ENSECAG00000015460/ENSECAG00000011792/ENSECAG00000010616/ENSECAG00000021777/ENSECAG00000015128/ENSECAG00000017232/ENSECAG00000019128/ENSECAG00000022254/ENSECAG00000051991/ENSECAG00000018435/ENSECAG00000009219/ENSECAG00000010052/ENSECAG00000015514/ENSECAG00000020967/ENSECAG00000021297/ENSECAG00000024788/ENSECAG00000020416/ENSECAG00000009145/ENSECAG00000038375/ENSECAG00000020488/ENSECAG00000023991/ENSECAG00000020716/ENSECAG00000012020/ENSECAG00000020867/ENSECAG00000015849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0003779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actin binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=40%, list=21%, signal=33%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000003398/ENSECAG00000019844/ENSECAG00000007818/ENSECAG00000009009/ENSECAG00000019476/ENSECAG00000004725/ENSECAG00000024991/ENSECAG00000017325/ENSECAG00000017218/ENSECAG00000022447/ENSECAG00000014009/ENSECAG00000002401/ENSECAG00000022695/ENSECAG00000011792/ENSECAG00000010616/ENSECAG00000024273/ENSECAG00000020816/ENSECAG00000021777/ENSECAG00000015128/ENSECAG00000011520/ENSECAG00000006844/ENSECAG00000008777/ENSECAG00000017232/ENSECAG00000012838/ENSECAG00000002920/ENSECAG00000022498/ENSECAG00000014949/ENSECAG00000022254/ENSECAG00000011590/ENSECAG00000051991/ENSECAG00000015834/ENSECAG00000012900/ENSECAG00000046233/ENSECAG00000020555/ENSECAG00000022125/ENSECAG00000010052/ENSECAG00000015514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0016740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transferase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=22%, list=13%, signal=21%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000012599/ENSECAG00000013563/ENSECAG00000006771/ENSECAG00000014579/ENSECAG00000005292/ENSECAG00000023067/ENSECAG00000018796/ENSECAG00000017593/ENSECAG00000015087/ENSECAG00000013449/ENSECAG00000017447/ENSECAG00000013653/ENSECAG00000015944/ENSECAG00000017534/ENSECAG00000013447/ENSECAG00000014822/ENSECAG00000022585/ENSECAG00000010080/ENSECAG00000019466/ENSECAG00000016632/ENSECAG00000018332/ENSECAG00000015203/ENSECAG00000007900/ENSECAG00000013032/ENSECAG00000014460/ENSECAG00000008264/ENSECAG00000012072/ENSECAG00000018176/ENSECAG00000014773/ENSECAG00000014755/ENSECAG00000010851/ENSECAG00000014586/ENSECAG00000022822/ENSECAG00000020168/ENSECAG00000009872/ENSECAG00000009217/ENSECAG00000021385/ENSECAG00000024404/ENSECAG00000016283/ENSECAG00000014017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0005179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hormone activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=40%, list=2%, signal=39%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000014282/ENSECAG00000014892/ENSECAG00000008726/ENSECAG00000018455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0005518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collagen binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=59%, list=14%, signal=51%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000004871/ENSECAG00000038712/ENSECAG00000000480/ENSECAG00000018248/ENSECAG00000010778/ENSECAG00000016615/ENSECAG00000013874/ENSECAG00000012627/ENSECAG00000022731/ENSECAG00000021766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0043236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laminin binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=60%, list=20%, signal=48%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000019043/ENSECAG00000016615/ENSECAG00000013062/ENSECAG00000022498/ENSECAG00000006745/ENSECAG00000006474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0031267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">small GTPase binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=43%, list=18%, signal=36%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000021389/ENSECAG00000024920/ENSECAG00000008168/ENSECAG00000015543/ENSECAG00000010780/ENSECAG00000011638/ENSECAG00000014560/ENSECAG00000012270/ENSECAG00000009844/ENSECAG00000008399/ENSECAG00000015965/ENSECAG00000021929/ENSECAG00000017840/ENSECAG00000013788/ENSECAG00000009872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0005509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calcium ion binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=29%, list=14%, signal=26%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000021663/ENSECAG00000019596/ENSECAG00000015369/ENSECAG00000018455/ENSECAG00000008844/ENSECAG00000021047/ENSECAG00000021886/ENSECAG00000011700/ENSECAG00000023703/ENSECAG00000017905/ENSECAG00000020005/ENSECAG00000009009/ENSECAG00000019476/ENSECAG00000005863/ENSECAG00000008221/ENSECAG00000009742/ENSECAG00000012395/ENSECAG00000008859/ENSECAG00000019691/ENSECAG00000010512/ENSECAG00000016615/ENSECAG00000013874/ENSECAG00000006772/ENSECAG00000008577/ENSECAG00000019452/ENSECAG00000047470/ENSECAG00000024045/ENSECAG00000012670/ENSECAG00000015794/ENSECAG00000021777/ENSECAG00000018101/ENSECAG00000007047/ENSECAG00000024049/ENSECAG00000013738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=46%, list=26%, signal=36%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000010156/ENSECAG00000018545/ENSECAG00000024268/ENSECAG00000007319/ENSECAG00000012515/ENSECAG00000012110/ENSECAG00000021927/ENSECAG00000022469/ENSECAG00000020316/ENSECAG00000019293/ENSECAG00000008963/ENSECAG00000008987/ENSECAG00000013062/ENSECAG00000011670/ENSECAG00000016779/ENSECAG00000013915/ENSECAG00000020665/ENSECAG00000015258/ENSECAG00000000370/ENSECAG00000049946/ENSECAG00000016340/ENSECAG00000011157/ENSECAG00000012597/ENSECAG00000024336/ENSECAG00000044806/ENSECAG00000016653/ENSECAG00000021023/ENSECAG00000020632/ENSECAG00000009738/ENSECAG00000009065/ENSECAG00000016190/ENSECAG00000010520/ENSECAG00000012463/ENSECAG00000014090/ENSECAG00000013269/ENSECAG00000058389/ENSECAG00000012603/ENSECAG00000024095/ENSECAG00000023179/ENSECAG00000009573/ENSECAG00000012333/ENSECAG00000018773/ENSECAG00000022485/ENSECAG00000026813/ENSECAG00000015089/ENSECAG00000013877/ENSECAG00000008403/ENSECAG00000010015/ENSECAG00000021880/ENSECAG00000020854/ENSECAG00000023253/ENSECAG00000011037/ENSECAG00000039689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF_vs_Sham_RA</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0005840</t>
   </si>
   <si>
     <t xml:space="preserve">ribosome</t>
   </si>
   <si>
-    <t xml:space="preserve">tags=40%, list=17%, signal=34%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000031968/ENSECAG00000012110/ENSECAG00000010157/ENSECAG00000026813/ENSECAG00000015258/ENSECAG00000021927/ENSECAG00000020665/ENSECAG00000018545/ENSECAG00000003600/ENSECAG00000021065/ENSECAG00000016779/ENSECAG00000008548/ENSECAG00000000008/ENSECAG00000049946/ENSECAG00000024079/ENSECAG00000014926/ENSECAG00000020363/ENSECAG00000020632/ENSECAG00000008403/ENSECAG00000013062/ENSECAG00000015089/ENSECAG00000021867/ENSECAG00000012515/ENSECAG00000023179/ENSECAG00000009065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0022625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cytosolic large ribosomal subunit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=67%, list=19%, signal=54%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000010157/ENSECAG00000026813/ENSECAG00000015258/ENSECAG00000021927/ENSECAG00000020665/ENSECAG00000021065/ENSECAG00000008548/ENSECAG00000000008/ENSECAG00000024079/ENSECAG00000009188/ENSECAG00000020632/ENSECAG00000008403/ENSECAG00000023179/ENSECAG00000007778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0005751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitochondrial respiratory chain complex IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=90%, list=16%, signal=76%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000012512/ENSECAG00000027692/ENSECAG00000011458/ENSECAG00000012469/ENSECAG00000000160/ENSECAG00000011722/ENSECAG00000004824/ENSECAG00000007968/ENSECAG00000000584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0005762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitochondrial large ribosomal subunit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=60%, list=11%, signal=54%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000020931/ENSECAG00000012110/ENSECAG00000018545/ENSECAG00000007635/ENSECAG00000014926/ENSECAG00000048211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0005743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitochondrial inner membrane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=50%, list=25%, signal=39%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000012512/ENSECAG00000013993/ENSECAG00000008844/ENSECAG00000021948/ENSECAG00000027684/ENSECAG00000017188/ENSECAG00000027692/ENSECAG00000016937/ENSECAG00000011458/ENSECAG00000000402/ENSECAG00000022520/ENSECAG00000019064/ENSECAG00000012469/ENSECAG00000000160/ENSECAG00000011681/ENSECAG00000009487/ENSECAG00000014836/ENSECAG00000021275/ENSECAG00000041550/ENSECAG00000018123/ENSECAG00000000682/ENSECAG00000011722/ENSECAG00000004824/ENSECAG00000000017/ENSECAG00000013738/ENSECAG00000018238/ENSECAG00000002088/ENSECAG00000014543/ENSECAG00000010152/ENSECAG00000024248/ENSECAG00000011331/ENSECAG00000014853/ENSECAG00000000584/ENSECAG00000017656/ENSECAG00000013454/ENSECAG00000000397/ENSECAG00000009102/ENSECAG00000039611/ENSECAG00000020610/ENSECAG00000020674/ENSECAG00000000643/ENSECAG00000015610/ENSECAG00000016788/ENSECAG00000009904/ENSECAG00000018599/ENSECAG00000008125/ENSECAG00000027681/ENSECAG00000000861/ENSECAG00000010175/ENSECAG00000019013/ENSECAG00000015914/ENSECAG00000049440/ENSECAG00000056021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0022626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cytosolic ribosome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=43%, list=17%, signal=36%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000031968/ENSECAG00000004470/ENSECAG00000026813/ENSECAG00000020665/ENSECAG00000008548/ENSECAG00000024079/ENSECAG00000020363/ENSECAG00000008403/ENSECAG00000015089/ENSECAG00000023179</t>
+    <t xml:space="preserve">tags=68%, list=23%, signal=53%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000010156/ENSECAG00000018545/ENSECAG00000024268/ENSECAG00000007319/ENSECAG00000012515/ENSECAG00000012110/ENSECAG00000021927/ENSECAG00000022469/ENSECAG00000020316/ENSECAG00000019293/ENSECAG00000020978/ENSECAG00000008987/ENSECAG00000013062/ENSECAG00000011670/ENSECAG00000016779/ENSECAG00000013915/ENSECAG00000020665/ENSECAG00000015258/ENSECAG00000000370/ENSECAG00000049946/ENSECAG00000016340/ENSECAG00000011157/ENSECAG00000024336/ENSECAG00000044806/ENSECAG00000020632/ENSECAG00000009738/ENSECAG00000009065/ENSECAG00000016190/ENSECAG00000012463/ENSECAG00000014090/ENSECAG00000013269/ENSECAG00000058389/ENSECAG00000012603/ENSECAG00000022567/ENSECAG00000023179/ENSECAG00000009573/ENSECAG00000012333/ENSECAG00000018773/ENSECAG00000022485/ENSECAG00000026813/ENSECAG00000015089/ENSECAG00000008403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=80%, list=12%, signal=71%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000020931/ENSECAG00000010156/ENSECAG00000018545/ENSECAG00000048211/ENSECAG00000012110/ENSECAG00000014964/ENSECAG00000008987/ENSECAG00000044806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0015935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">small ribosomal subunit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000007319/ENSECAG00000020316/ENSECAG00000013062/ENSECAG00000013915/ENSECAG00000016340/ENSECAG00000024336/ENSECAG00000009065/ENSECAG00000012463</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0003735</t>
@@ -174,82 +691,460 @@
     <t xml:space="preserve">structural constituent of ribosome</t>
   </si>
   <si>
-    <t xml:space="preserve">tags=62%, list=30%, signal=45%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000031968/ENSECAG00000012110/ENSECAG00000010157/ENSECAG00000026813/ENSECAG00000015258/ENSECAG00000021927/ENSECAG00000020665/ENSECAG00000018545/ENSECAG00000003600/ENSECAG00000021065/ENSECAG00000007635/ENSECAG00000016779/ENSECAG00000008548/ENSECAG00000000008/ENSECAG00000049946/ENSECAG00000024079/ENSECAG00000014926/ENSECAG00000009188/ENSECAG00000020632/ENSECAG00000008403/ENSECAG00000013062/ENSECAG00000015089/ENSECAG00000021867/ENSECAG00000012515/ENSECAG00000023179/ENSECAG00000009065/ENSECAG00000007778/ENSECAG00000011670/ENSECAG00000020316/ENSECAG00000008987/ENSECAG00000013272/ENSECAG00000016340/ENSECAG00000024095/ENSECAG00000022469/ENSECAG00000000370/ENSECAG00000036419/ENSECAG00000011157/ENSECAG00000044806/ENSECAG00000019293/ENSECAG00000016489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">molecular_function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=43%, list=19%, signal=36%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000024268/ENSECAG00000010156/ENSECAG00000018545/ENSECAG00000012515/ENSECAG00000015258/ENSECAG00000021927/ENSECAG00000022469/ENSECAG00000007319/ENSECAG00000019293/ENSECAG00000020316/ENSECAG00000016340/ENSECAG00000020665/ENSECAG00000000370/ENSECAG00000013915/ENSECAG00000011670/ENSECAG00000020632/ENSECAG00000008963/ENSECAG00000012110/ENSECAG00000013062/ENSECAG00000049946/ENSECAG00000015089/ENSECAG00000012463/ENSECAG00000009065/ENSECAG00000011157/ENSECAG00000012597/ENSECAG00000013269/ENSECAG00000008987/ENSECAG00000021023/ENSECAG00000016779/ENSECAG00000023179/ENSECAG00000016190/ENSECAG00000026813/ENSECAG00000044806/ENSECAG00000016489/ENSECAG00000012333/ENSECAG00000023253/ENSECAG00000014276/ENSECAG00000024336/ENSECAG00000031968/ENSECAG00000022485/ENSECAG00000058389/ENSECAG00000021478/ENSECAG00000009573/ENSECAG00000014090/ENSECAG00000004931/ENSECAG00000021880/ENSECAG00000013877/ENSECAG00000008403/ENSECAG00000015150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF_vs_Sham_RA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=66%, list=18%, signal=55%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000024268/ENSECAG00000010156/ENSECAG00000018545/ENSECAG00000012515/ENSECAG00000015258/ENSECAG00000021927/ENSECAG00000022469/ENSECAG00000007319/ENSECAG00000019293/ENSECAG00000020316/ENSECAG00000016340/ENSECAG00000020665/ENSECAG00000000370/ENSECAG00000013915/ENSECAG00000011670/ENSECAG00000020632/ENSECAG00000020978/ENSECAG00000012110/ENSECAG00000013062/ENSECAG00000049946/ENSECAG00000015089/ENSECAG00000012463/ENSECAG00000009065/ENSECAG00000011157/ENSECAG00000013269/ENSECAG00000008987/ENSECAG00000016779/ENSECAG00000023179/ENSECAG00000016190/ENSECAG00000026813/ENSECAG00000044806/ENSECAG00000016489/ENSECAG00000012333/ENSECAG00000024336/ENSECAG00000031968/ENSECAG00000022485/ENSECAG00000058389/ENSECAG00000009573/ENSECAG00000014090/ENSECAG00000022567/ENSECAG00000008403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0022627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cytosolic small ribosomal subunit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=65%, list=17%, signal=55%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000024268/ENSECAG00000019293/ENSECAG00000020316/ENSECAG00000016340/ENSECAG00000000370/ENSECAG00000013915/ENSECAG00000020978/ENSECAG00000013062/ENSECAG00000015089/ENSECAG00000012463/ENSECAG00000009065/ENSECAG00000013269/ENSECAG00000016190/ENSECAG00000024336/ENSECAG00000031968/ENSECAG00000058389/ENSECAG00000009573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0015935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">small ribosomal subunit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=90%, list=15%, signal=77%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000007319/ENSECAG00000020316/ENSECAG00000016340/ENSECAG00000013915/ENSECAG00000013062/ENSECAG00000012463/ENSECAG00000009065/ENSECAG00000024336/ENSECAG00000031968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0032587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruffle membrane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=45%, list=10%, signal=41%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000012072/ENSECAG00000021989/ENSECAG00000024979/ENSECAG00000014922/ENSECAG00000021377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=76%, list=25%, signal=57%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000015258/ENSECAG00000021927/ENSECAG00000022469/ENSECAG00000009188/ENSECAG00000020665/ENSECAG00000011670/ENSECAG00000020632/ENSECAG00000023179/ENSECAG00000026813/ENSECAG00000016489/ENSECAG00000014090/ENSECAG00000008403/ENSECAG00000000008/ENSECAG00000010157/ENSECAG00000024095/ENSECAG00000007778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=61%, list=32%, signal=42%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000021948/ENSECAG00000027694/ENSECAG00000010779/ENSECAG00000027684/ENSECAG00000027681/ENSECAG00000018123/ENSECAG00000000402/ENSECAG00000017656/ENSECAG00000009102/ENSECAG00000009904/ENSECAG00000039611/ENSECAG00000018238/ENSECAG00000022520/ENSECAG00000049440/ENSECAG00000013454/ENSECAG00000000682/ENSECAG00000021690/ENSECAG00000015836/ENSECAG00000015914</t>
+    <t xml:space="preserve">tags=70%, list=23%, signal=55%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000010156/ENSECAG00000018545/ENSECAG00000024268/ENSECAG00000013272/ENSECAG00000007319/ENSECAG00000012515/ENSECAG00000012110/ENSECAG00000021927/ENSECAG00000022469/ENSECAG00000020316/ENSECAG00000019293/ENSECAG00000020978/ENSECAG00000008987/ENSECAG00000013062/ENSECAG00000011670/ENSECAG00000009188/ENSECAG00000016779/ENSECAG00000013915/ENSECAG00000020665/ENSECAG00000015258/ENSECAG00000000370/ENSECAG00000049946/ENSECAG00000016340/ENSECAG00000011157/ENSECAG00000024336/ENSECAG00000044806/ENSECAG00000020632/ENSECAG00000009738/ENSECAG00000009065/ENSECAG00000016190/ENSECAG00000012463/ENSECAG00000014090/ENSECAG00000013269/ENSECAG00000058389/ENSECAG00000012603/ENSECAG00000024095/ENSECAG00000007635/ENSECAG00000023179/ENSECAG00000009573/ENSECAG00000012333/ENSECAG00000018773/ENSECAG00000022485/ENSECAG00000026813/ENSECAG00000015089/ENSECAG00000008403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0003676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nucleic acid binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=53%, list=23%, signal=43%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000024091/ENSECAG00000007051/ENSECAG00000010867/ENSECAG00000009512/ENSECAG00000028247/ENSECAG00000011500/ENSECAG00000011451/ENSECAG00000018305/ENSECAG00000023575/ENSECAG00000013654/ENSECAG00000014429/ENSECAG00000021223/ENSECAG00000005731/ENSECAG00000008676/ENSECAG00000018659/ENSECAG00000032164/ENSECAG00000000642/ENSECAG00000023868/ENSECAG00000018845/ENSECAG00000016654/ENSECAG00000025104/ENSECAG00000000314/ENSECAG00000013733/ENSECAG00000008502/ENSECAG00000000782/ENSECAG00000055320/ENSECAG00000013936/ENSECAG00000011727/ENSECAG00000009275/ENSECAG00000008338/ENSECAG00000017333/ENSECAG00000011652/ENSECAG00000012292/ENSECAG00000014822/ENSECAG00000024257/ENSECAG00000018754/ENSECAG00000004044/ENSECAG00000007560/ENSECAG00000021823/ENSECAG00000005988/ENSECAG00000019845/ENSECAG00000012677/ENSECAG00000012701/ENSECAG00000017832/ENSECAG00000011508/ENSECAG00000015682/ENSECAG00000009901/ENSECAG00000011805/ENSECAG00000018741/ENSECAG00000022234/ENSECAG00000022692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=84%, list=22%, signal=67%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000021948/ENSECAG00000000402/ENSECAG00000027684/ENSECAG00000018238/ENSECAG00000017188/ENSECAG00000021275/ENSECAG00000017656/ENSECAG00000014140/ENSECAG00000011681/ENSECAG00000027681/ENSECAG00000000682/ENSECAG00000013454/ENSECAG00000039611/ENSECAG00000005530/ENSECAG00000010580/ENSECAG00000009102/ENSECAG00000027675/ENSECAG00000020674/ENSECAG00000015836/ENSECAG00000027694/ENSECAG00000049440/ENSECAG00000020610/ENSECAG00000015610/ENSECAG00000010779/ENSECAG00000010175/ENSECAG00000015914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AverageDiseaseEffect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=89%, list=22%, signal=70%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000000402/ENSECAG00000027684/ENSECAG00000018238/ENSECAG00000021275/ENSECAG00000027681/ENSECAG00000013454/ENSECAG00000021690/ENSECAG00000039611/ENSECAG00000009102/ENSECAG00000027675/ENSECAG00000027694/ENSECAG00000000749/ENSECAG00000010175/ENSECAG00000021477/ENSECAG00000015914/ENSECAG00000014853/ENSECAG00000009904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=47%, list=13%, signal=42%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000010778/ENSECAG00000020789/ENSECAG00000019596/ENSECAG00000020887/ENSECAG00000018584/ENSECAG00000015369/ENSECAG00000019193/ENSECAG00000013062/ENSECAG00000018670/ENSECAG00000058607/ENSECAG00000021377/ENSECAG00000000701/ENSECAG00000023141/ENSECAG00000016615/ENSECAG00000023844/ENSECAG00000021162/ENSECAG00000012395/ENSECAG00000013566/ENSECAG00000017542/ENSECAG00000020592/ENSECAG00000010267/ENSECAG00000001652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=41%, list=14%, signal=36%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000007795/ENSECAG00000012967/ENSECAG00000006771/ENSECAG00000014460/ENSECAG00000018307/ENSECAG00000024299/ENSECAG00000022617/ENSECAG00000016977/ENSECAG00000009872/ENSECAG00000018489/ENSECAG00000008264/ENSECAG00000025015/ENSECAG00000013890/ENSECAG00000017000/ENSECAG00000018176/ENSECAG00000022585/ENSECAG00000019290/ENSECAG00000017840/ENSECAG00000008775/ENSECAG00000014017/ENSECAG00000016283/ENSECAG00000019786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=56%, list=34%, signal=38%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000024190/ENSECAG00000010644/ENSECAG00000021954/ENSECAG00000011374/ENSECAG00000006675/ENSECAG00000026883/ENSECAG00000050063/ENSECAG00000014002/ENSECAG00000014495/ENSECAG00000017459/ENSECAG00000012273/ENSECAG00000010851/ENSECAG00000003103/ENSECAG00000011062/ENSECAG00000019466/ENSECAG00000020597/ENSECAG00000014168/ENSECAG00000015528/ENSECAG00000000064/ENSECAG00000004792/ENSECAG00000004645/ENSECAG00000019235/ENSECAG00000023505/ENSECAG00000024013/ENSECAG00000009606/ENSECAG00000024404/ENSECAG00000022815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=38%, list=19%, signal=32%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000021905/ENSECAG00000023067/ENSECAG00000013449/ENSECAG00000016439/ENSECAG00000024339/ENSECAG00000018796/ENSECAG00000015087/ENSECAG00000006771/ENSECAG00000010080/ENSECAG00000014460/ENSECAG00000016632/ENSECAG00000018332/ENSECAG00000009872/ENSECAG00000020168/ENSECAG00000008264/ENSECAG00000009799/ENSECAG00000019235/ENSECAG00000013890/ENSECAG00000017000/ENSECAG00000015944/ENSECAG00000018176/ENSECAG00000022585/ENSECAG00000022822/ENSECAG00000019955/ENSECAG00000017840/ENSECAG00000014017/ENSECAG00000016283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=94%, list=22%, signal=74%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000021948/ENSECAG00000000402/ENSECAG00000027684/ENSECAG00000022520/ENSECAG00000018238/ENSECAG00000017188/ENSECAG00000018123/ENSECAG00000021275/ENSECAG00000017656/ENSECAG00000011681/ENSECAG00000027681/ENSECAG00000000682/ENSECAG00000013454/ENSECAG00000021690/ENSECAG00000039611/ENSECAG00000009102/ENSECAG00000027675/ENSECAG00000020674/ENSECAG00000015836/ENSECAG00000027694/ENSECAG00000049440/ENSECAG00000020610/ENSECAG00000015610/ENSECAG00000010779/ENSECAG00000010175/ENSECAG00000021477/ENSECAG00000015914/ENSECAG00000014853/ENSECAG00000009904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=55%, list=22%, signal=45%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000012512/ENSECAG00000021948/ENSECAG00000014836/ENSECAG00000027692/ENSECAG00000000402/ENSECAG00000000160/ENSECAG00000027684/ENSECAG00000011458/ENSECAG00000024045/ENSECAG00000022520/ENSECAG00000013993/ENSECAG00000012469/ENSECAG00000000017/ENSECAG00000010152/ENSECAG00000018238/ENSECAG00000017188/ENSECAG00000018123/ENSECAG00000021275/ENSECAG00000041550/ENSECAG00000017656/ENSECAG00000011681/ENSECAG00000027681/ENSECAG00000008844/ENSECAG00000013537/ENSECAG00000013738/ENSECAG00000000682/ENSECAG00000011722/ENSECAG00000013454/ENSECAG00000016937/ENSECAG00000039611/ENSECAG00000000643/ENSECAG00000002088/ENSECAG00000011331/ENSECAG00000009102/ENSECAG00000018599/ENSECAG00000027675/ENSECAG00000000584/ENSECAG00000023146/ENSECAG00000009487/ENSECAG00000020674/ENSECAG00000015836/ENSECAG00000027694/ENSECAG00000024248/ENSECAG00000008125/ENSECAG00000000861/ENSECAG00000049440/ENSECAG00000020610/ENSECAG00000015610/ENSECAG00000004824/ENSECAG00000010779/ENSECAG00000010175/ENSECAG00000013441/ENSECAG00000021477/ENSECAG00000024569/ENSECAG00000015914/ENSECAG00000014853/ENSECAG00000000397/ENSECAG00000009904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=80%, list=6%, signal=76%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000020931/ENSECAG00000012110/ENSECAG00000018545/ENSECAG00000048211/ENSECAG00000007635/ENSECAG00000008987/ENSECAG00000010156/ENSECAG00000014964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=62%, list=20%, signal=51%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000013832/ENSECAG00000016720/ENSECAG00000020887/ENSECAG00000022731/ENSECAG00000019476/ENSECAG00000037857/ENSECAG00000010052/ENSECAG00000022083/ENSECAG00000006772/ENSECAG00000015514/ENSECAG00000047470/ENSECAG00000023844/ENSECAG00000000487/ENSECAG00000024827/ENSECAG00000057698/ENSECAG00000020715/ENSECAG00000009134/ENSECAG00000012670/ENSECAG00000019436/ENSECAG00000017771/ENSECAG00000013481/ENSECAG00000022498/ENSECAG00000018717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=58%, list=25%, signal=45%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000012110/ENSECAG00000018545/ENSECAG00000016779/ENSECAG00000020665/ENSECAG00000012515/ENSECAG00000008987/ENSECAG00000010156/ENSECAG00000010157/ENSECAG00000049946/ENSECAG00000015258/ENSECAG00000031968/ENSECAG00000013062/ENSECAG00000026813/ENSECAG00000021927/ENSECAG00000008403/ENSECAG00000003600/ENSECAG00000008548/ENSECAG00000020316/ENSECAG00000021065/ENSECAG00000024268/ENSECAG00000011670/ENSECAG00000007319/ENSECAG00000044806/ENSECAG00000022567/ENSECAG00000016340/ENSECAG00000000008/ENSECAG00000012603/ENSECAG00000023179/ENSECAG00000022469/ENSECAG00000000370/ENSECAG00000011157/ENSECAG00000022485/ENSECAG00000014090/ENSECAG00000014926/ENSECAG00000009065/ENSECAG00000020632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=45%, list=13%, signal=41%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000019844/ENSECAG00000013832/ENSECAG00000016720/ENSECAG00000009009/ENSECAG00000022203/ENSECAG00000015157/ENSECAG00000010808/ENSECAG00000023122/ENSECAG00000019476/ENSECAG00000020463/ENSECAG00000012507/ENSECAG00000017896/ENSECAG00000020816/ENSECAG00000008577/ENSECAG00000024273/ENSECAG00000015514/ENSECAG00000010616/ENSECAG00000021777/ENSECAG00000020555/ENSECAG00000020592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=62%, list=13%, signal=55%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000013832/ENSECAG00000033235/ENSECAG00000016987/ENSECAG00000004216/ENSECAG00000015514/ENSECAG00000020036/ENSECAG00000011097/ENSECAG00000013566/ENSECAG00000020592/ENSECAG00000000487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=71%, list=25%, signal=54%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000020665/ENSECAG00000010157/ENSECAG00000015258/ENSECAG00000026813/ENSECAG00000009188/ENSECAG00000021927/ENSECAG00000008403/ENSECAG00000008548/ENSECAG00000021065/ENSECAG00000011670/ENSECAG00000000008/ENSECAG00000023179/ENSECAG00000022469/ENSECAG00000014090/ENSECAG00000020632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=80%, list=13%, signal=70%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000012512/ENSECAG00000027692/ENSECAG00000000160/ENSECAG00000011458/ENSECAG00000012469/ENSECAG00000007968/ENSECAG00000011722/ENSECAG00000000584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=54%, list=17%, signal=45%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000010778/ENSECAG00000020887/ENSECAG00000018455/ENSECAG00000024769/ENSECAG00000022731/ENSECAG00000013693/ENSECAG00000000480/ENSECAG00000017905/ENSECAG00000000701/ENSECAG00000009280/ENSECAG00000012670/ENSECAG00000019436/ENSECAG00000025065/ENSECAG00000019043/ENSECAG00000015904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=30%, list=21%, signal=26%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000004871/ENSECAG00000021663/ENSECAG00000014282/ENSECAG00000018113/ENSECAG00000013486/ENSECAG00000021499/ENSECAG00000019596/ENSECAG00000016720/ENSECAG00000014892/ENSECAG00000022438/ENSECAG00000020887/ENSECAG00000018455/ENSECAG00000014867/ENSECAG00000018345/ENSECAG00000024769/ENSECAG00000038712/ENSECAG00000013693/ENSECAG00000008221/ENSECAG00000008303/ENSECAG00000015369/ENSECAG00000017025/ENSECAG00000008726/ENSECAG00000022546/ENSECAG00000018248/ENSECAG00000000701/ENSECAG00000013035/ENSECAG00000004201/ENSECAG00000021162/ENSECAG00000009280/ENSECAG00000012395/ENSECAG00000021314/ENSECAG00000012910/ENSECAG00000018126/ENSECAG00000014247/ENSECAG00000011727/ENSECAG00000008913/ENSECAG00000006991/ENSECAG00000012670/ENSECAG00000020200/ENSECAG00000017644/ENSECAG00000011942/ENSECAG00000013874/ENSECAG00000019043/ENSECAG00000015904/ENSECAG00000038762/ENSECAG00000024138/ENSECAG00000010646/ENSECAG00000019633/ENSECAG00000039785/ENSECAG00000018467/ENSECAG00000015966/ENSECAG00000009054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=44%, list=13%, signal=39%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000009009/ENSECAG00000019476/ENSECAG00000011792/ENSECAG00000022083/ENSECAG00000010616/ENSECAG00000021777/ENSECAG00000015460/ENSECAG00000018435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=80%, list=18%, signal=66%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000027692/ENSECAG00000027684/ENSECAG00000022520/ENSECAG00000018238/ENSECAG00000017188/ENSECAG00000018123/ENSECAG00000021275/ENSECAG00000017656/ENSECAG00000011681/ENSECAG00000027681/ENSECAG00000039611/ENSECAG00000020674/ENSECAG00000015836/ENSECAG00000027694/ENSECAG00000020610/ENSECAG00000004824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=31%, list=20%, signal=26%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000012506/ENSECAG00000008742/ENSECAG00000007747/ENSECAG00000041933/ENSECAG00000016257/ENSECAG00000024555/ENSECAG00000010780/ENSECAG00000051009/ENSECAG00000012967/ENSECAG00000019125/ENSECAG00000013404/ENSECAG00000005661/ENSECAG00000014460/ENSECAG00000019611/ENSECAG00000024607/ENSECAG00000008697/ENSECAG00000019630/ENSECAG00000021178/ENSECAG00000015099/ENSECAG00000000124/ENSECAG00000004645/ENSECAG00000013245/ENSECAG00000014825/ENSECAG00000022950/ENSECAG00000012270/ENSECAG00000038893/ENSECAG00000018176/ENSECAG00000021359/ENSECAG00000013718/ENSECAG00000022341/ENSECAG00000021929/ENSECAG00000021898/ENSECAG00000014017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0000785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chromatin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=58%, list=26%, signal=44%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000015040/ENSECAG00000020651/ENSECAG00000013162/ENSECAG00000017459/ENSECAG00000012677/ENSECAG00000000517/ENSECAG00000010774/ENSECAG00000008742/ENSECAG00000016439/ENSECAG00000000817/ENSECAG00000011761/ENSECAG00000024023/ENSECAG00000009039/ENSECAG00000022617/ENSECAG00000020168/ENSECAG00000025015/ENSECAG00000022369/ENSECAG00000015042/ENSECAG00000039147/ENSECAG00000006290/ENSECAG00000022855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=63%, list=17%, signal=53%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000021663/ENSECAG00000018455/ENSECAG00000018584/ENSECAG00000008303/ENSECAG00000015369/ENSECAG00000000701/ENSECAG00000023141/ENSECAG00000016615/ENSECAG00000023844/ENSECAG00000021314/ENSECAG00000012670/ENSECAG00000013874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=58%, list=28%, signal=42%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000010434/ENSECAG00000014002/ENSECAG00000011667/ENSECAG00000009844/ENSECAG00000005219/ENSECAG00000017618/ENSECAG00000002380/ENSECAG00000017566/ENSECAG00000011638/ENSECAG00000007426/ENSECAG00000017216/ENSECAG00000039088/ENSECAG00000028265/ENSECAG00000005198/ENSECAG00000022158/ENSECAG00000006850/ENSECAG00000017473/ENSECAG00000026807/ENSECAG00000010711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=43%, list=11%, signal=39%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000020789/ENSECAG00000020887/ENSECAG00000018455/ENSECAG00000022731/ENSECAG00000038712/ENSECAG00000013693/ENSECAG00000021047/ENSECAG00000000480/ENSECAG00000017802/ENSECAG00000017905/ENSECAG00000018248/ENSECAG00000000701/ENSECAG00000016615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0005768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endosome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=39%, list=20%, signal=32%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000005219/ENSECAG00000007747/ENSECAG00000023115/ENSECAG00000017618/ENSECAG00000010874/ENSECAG00000017566/ENSECAG00000011638/ENSECAG00000007426/ENSECAG00000007384/ENSECAG00000017216/ENSECAG00000028265/ENSECAG00000005198/ENSECAG00000017555/ENSECAG00000004903/ENSECAG00000022158/ENSECAG00000019611/ENSECAG00000012176/ENSECAG00000006850/ENSECAG00000004691/ENSECAG00000014825/ENSECAG00000018146/ENSECAG00000017202/ENSECAG00000009752/ENSECAG00000022664/ENSECAG00000017473/ENSECAG00000044183/ENSECAG00000004362/ENSECAG00000002320/ENSECAG00000010711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0005739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitochondrion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=28%, list=22%, signal=27%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000012512/ENSECAG00000021948/ENSECAG00000013254/ENSECAG00000012110/ENSECAG00000018545/ENSECAG00000023870/ENSECAG00000000398/ENSECAG00000019638/ENSECAG00000012956/ENSECAG00000011982/ENSECAG00000048211/ENSECAG00000007635/ENSECAG00000020973/ENSECAG00000014836/ENSECAG00000023122/ENSECAG00000004666/ENSECAG00000027692/ENSECAG00000014284/ENSECAG00000015142/ENSECAG00000000160/ENSECAG00000012515/ENSECAG00000027684/ENSECAG00000011458/ENSECAG00000007495/ENSECAG00000022520/ENSECAG00000023888/ENSECAG00000012507/ENSECAG00000008987/ENSECAG00000013993/ENSECAG00000010156/ENSECAG00000014964/ENSECAG00000026862/ENSECAG00000012469/ENSECAG00000006819/ENSECAG00000000017/ENSECAG00000010152/ENSECAG00000018238/ENSECAG00000017188/ENSECAG00000007968/ENSECAG00000018123/ENSECAG00000021275/ENSECAG00000024226/ENSECAG00000013362/ENSECAG00000041550/ENSECAG00000017656/ENSECAG00000023189/ENSECAG00000014140/ENSECAG00000011681/ENSECAG00000027681/ENSECAG00000008844/ENSECAG00000013537/ENSECAG00000013272/ENSECAG00000013738/ENSECAG00000000682/ENSECAG00000011722/ENSECAG00000013454/ENSECAG00000016542/ENSECAG00000017714/ENSECAG00000016937/ENSECAG00000001360/ENSECAG00000039611/ENSECAG00000000643/ENSECAG00000005530/ENSECAG00000036379/ENSECAG00000002088/ENSECAG00000010580/ENSECAG00000003600/ENSECAG00000011331/ENSECAG00000000449/ENSECAG00000009102/ENSECAG00000018599/ENSECAG00000058238/ENSECAG00000000584/ENSECAG00000009487/ENSECAG00000014846/ENSECAG00000020674/ENSECAG00000008611/ENSECAG00000020715/ENSECAG00000008452/ENSECAG00000015836/ENSECAG00000008220/ENSECAG00000027694/ENSECAG00000024248/ENSECAG00000020415/ENSECAG00000024482/ENSECAG00000015071/ENSECAG00000020283/ENSECAG00000008125/ENSECAG00000020669/ENSECAG00000011852/ENSECAG00000000861/ENSECAG00000049440/ENSECAG00000020610/ENSECAG00000015610/ENSECAG00000039018/ENSECAG00000044806/ENSECAG00000022803/ENSECAG00000022567/ENSECAG00000021375/ENSECAG00000004824/ENSECAG00000000749/ENSECAG00000012575/ENSECAG00000012929/ENSECAG00000012793/ENSECAG00000010779/ENSECAG00000010646/ENSECAG00000012656/ENSECAG00000002611/ENSECAG00000010175/ENSECAG00000016077/ENSECAG00000013441/ENSECAG00000007798/ENSECAG00000009054/ENSECAG00000000795/ENSECAG00000026822/ENSECAG00000010479/ENSECAG00000021477/ENSECAG00000007084/ENSECAG00000024569/ENSECAG00000015914/ENSECAG00000014853/ENSECAG00000000397/ENSECAG00000023054/ENSECAG00000009904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=59%, list=25%, signal=46%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000012110/ENSECAG00000018545/ENSECAG00000016779/ENSECAG00000007635/ENSECAG00000020665/ENSECAG00000012515/ENSECAG00000008987/ENSECAG00000010156/ENSECAG00000010157/ENSECAG00000049946/ENSECAG00000015258/ENSECAG00000031968/ENSECAG00000013062/ENSECAG00000026813/ENSECAG00000009188/ENSECAG00000021927/ENSECAG00000013272/ENSECAG00000008403/ENSECAG00000003600/ENSECAG00000008548/ENSECAG00000020316/ENSECAG00000021065/ENSECAG00000024268/ENSECAG00000011670/ENSECAG00000007319/ENSECAG00000044806/ENSECAG00000016340/ENSECAG00000000008/ENSECAG00000012603/ENSECAG00000023179/ENSECAG00000022469/ENSECAG00000000370/ENSECAG00000011157/ENSECAG00000022485/ENSECAG00000014090/ENSECAG00000014926/ENSECAG00000009065/ENSECAG00000020632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=100%, list=22%, signal=78%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000000402/ENSECAG00000027684/ENSECAG00000017188/ENSECAG00000021275/ENSECAG00000017656/ENSECAG00000027681/ENSECAG00000013454/ENSECAG00000009102/ENSECAG00000027675/ENSECAG00000027694/ENSECAG00000010175/ENSECAG00000021477/ENSECAG00000015914/ENSECAG00000009904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=33%, list=25%, signal=28%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000024898/ENSECAG00000013982/ENSECAG00000000700/ENSECAG00000011687/ENSECAG00000009901/ENSECAG00000008160/ENSECAG00000010610/ENSECAG00000017883/ENSECAG00000019180/ENSECAG00000016924/ENSECAG00000009478/ENSECAG00000024352/ENSECAG00000016353/ENSECAG00000011235/ENSECAG00000018608/ENSECAG00000007170/ENSECAG00000011122/ENSECAG00000005219/ENSECAG00000012116/ENSECAG00000016701/ENSECAG00000024315/ENSECAG00000019915/ENSECAG00000023115/ENSECAG00000025159/ENSECAG00000020234/ENSECAG00000015469/ENSECAG00000021905/ENSECAG00000012273/ENSECAG00000011638/ENSECAG00000023067/ENSECAG00000013449/ENSECAG00000024339/ENSECAG00000017216/ENSECAG00000000558/ENSECAG00000024346/ENSECAG00000011761/ENSECAG00000018796/ENSECAG00000009727/ENSECAG00000016257/ENSECAG00000015087/ENSECAG00000006756/ENSECAG00000000048/ENSECAG00000033788/ENSECAG00000007671/ENSECAG00000028265/ENSECAG00000015175/ENSECAG00000010584/ENSECAG00000021478/ENSECAG00000006771/ENSECAG00000004044/ENSECAG00000010080/ENSECAG00000017534/ENSECAG00000007103/ENSECAG00000008511/ENSECAG00000009169/ENSECAG00000022158/ENSECAG00000000102/ENSECAG00000057017/ENSECAG00000014586/ENSECAG00000015929/ENSECAG00000018948/ENSECAG00000014460/ENSECAG00000018307/ENSECAG00000019611/ENSECAG00000024299/ENSECAG00000021223/ENSECAG00000016632/ENSECAG00000022617/ENSECAG00000011552/ENSECAG00000018332/ENSECAG00000009275/ENSECAG00000016977/ENSECAG00000009872/ENSECAG00000020168/ENSECAG00000008264/ENSECAG00000019121/ENSECAG00000009799/ENSECAG00000025015/ENSECAG00000017015/ENSECAG00000013890/ENSECAG00000017000/ENSECAG00000015944/ENSECAG00000016526/ENSECAG00000018176/ENSECAG00000013447/ENSECAG00000013133/ENSECAG00000022585/ENSECAG00000022822/ENSECAG00000022341/ENSECAG00000021929/ENSECAG00000017366/ENSECAG00000013659/ENSECAG00000021823/ENSECAG00000011777/ENSECAG00000017840/ENSECAG00000014365/ENSECAG00000015548/ENSECAG00000008775/ENSECAG00000010711/ENSECAG00000014017/ENSECAG00000019786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=48%, list=25%, signal=37%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000019844/ENSECAG00000004725/ENSECAG00000015128/ENSECAG00000009009/ENSECAG00000019476/ENSECAG00000011792/ENSECAG00000010107/ENSECAG00000010052/ENSECAG00000024991/ENSECAG00000017325/ENSECAG00000015514/ENSECAG00000003398/ENSECAG00000010616/ENSECAG00000021777/ENSECAG00000009219/ENSECAG00000015460/ENSECAG00000018435/ENSECAG00000020416/ENSECAG00000023991/ENSECAG00000011456/ENSECAG00000051991/ENSECAG00000013481/ENSECAG00000013136/ENSECAG00000021886/ENSECAG00000012020/ENSECAG00000024788/ENSECAG00000022254/ENSECAG00000009145/ENSECAG00000038375/ENSECAG00000024113/ENSECAG00000021297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0005525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTP binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=44%, list=28%, signal=33%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000019522/ENSECAG00000044625/ENSECAG00000025054/ENSECAG00000006640/ENSECAG00000013982/ENSECAG00000019180/ENSECAG00000016924/ENSECAG00000009478/ENSECAG00000016353/ENSECAG00000011235/ENSECAG00000018608/ENSECAG00000005219/ENSECAG00000019915/ENSECAG00000023115/ENSECAG00000002380/ENSECAG00000020234/ENSECAG00000015469/ENSECAG00000011638/ENSECAG00000007384/ENSECAG00000017216/ENSECAG00000009727/ENSECAG00000033788/ENSECAG00000028265/ENSECAG00000009169/ENSECAG00000000102/ENSECAG00000016716/ENSECAG00000019611/ENSECAG00000024219/ENSECAG00000018191/ENSECAG00000018332/ENSECAG00000022500/ENSECAG00000013133/ENSECAG00000021009/ENSECAG00000022341/ENSECAG00000021929/ENSECAG00000017366/ENSECAG00000013659/ENSECAG00000006290/ENSECAG00000024148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=39%, list=14%, signal=35%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000007795/ENSECAG00000012967/ENSECAG00000006771/ENSECAG00000010080/ENSECAG00000014460/ENSECAG00000018307/ENSECAG00000024299/ENSECAG00000022617/ENSECAG00000016977/ENSECAG00000009872/ENSECAG00000018489/ENSECAG00000020168/ENSECAG00000008264/ENSECAG00000025015/ENSECAG00000013890/ENSECAG00000017000/ENSECAG00000018176/ENSECAG00000022585/ENSECAG00000022822/ENSECAG00000019290/ENSECAG00000017840/ENSECAG00000008775/ENSECAG00000014017/ENSECAG00000019786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=43%, list=14%, signal=38%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000012967/ENSECAG00000006771/ENSECAG00000010080/ENSECAG00000014460/ENSECAG00000018307/ENSECAG00000024299/ENSECAG00000022617/ENSECAG00000016977/ENSECAG00000009872/ENSECAG00000018489/ENSECAG00000020168/ENSECAG00000008264/ENSECAG00000025015/ENSECAG00000013890/ENSECAG00000017000/ENSECAG00000022585/ENSECAG00000017840/ENSECAG00000014017/ENSECAG00000016283/ENSECAG00000019786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=82%, list=20%, signal=66%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000021663/ENSECAG00000021377/ENSECAG00000016615/ENSECAG00000009280/ENSECAG00000013874/ENSECAG00000019043/ENSECAG00000015904/ENSECAG00000008859/ENSECAG00000018717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=43%, list=25%, signal=34%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000019844/ENSECAG00000004725/ENSECAG00000015128/ENSECAG00000009009/ENSECAG00000007818/ENSECAG00000019476/ENSECAG00000011792/ENSECAG00000010052/ENSECAG00000020816/ENSECAG00000022695/ENSECAG00000021326/ENSECAG00000024273/ENSECAG00000024991/ENSECAG00000017325/ENSECAG00000017218/ENSECAG00000015514/ENSECAG00000003398/ENSECAG00000010616/ENSECAG00000021777/ENSECAG00000006844/ENSECAG00000020555/ENSECAG00000002401/ENSECAG00000011590/ENSECAG00000020416/ENSECAG00000050899/ENSECAG00000011456/ENSECAG00000012838/ENSECAG00000051991/ENSECAG00000013481/ENSECAG00000017431/ENSECAG00000022498/ENSECAG00000002920/ENSECAG00000012020/ENSECAG00000024788/ENSECAG00000022254/ENSECAG00000014922/ENSECAG00000009145/ENSECAG00000008777/ENSECAG00000038375/ENSECAG00000024113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=31%, list=9%, signal=29%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000014560/ENSECAG00000008168/ENSECAG00000009872/ENSECAG00000024920/ENSECAG00000012270/ENSECAG00000015543/ENSECAG00000021929/ENSECAG00000013788/ENSECAG00000015965/ENSECAG00000017840/ENSECAG00000008399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=27%, list=21%, signal=24%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000007170/ENSECAG00000011122/ENSECAG00000012116/ENSECAG00000016701/ENSECAG00000024315/ENSECAG00000025159/ENSECAG00000035260/ENSECAG00000021905/ENSECAG00000012273/ENSECAG00000011638/ENSECAG00000023067/ENSECAG00000013449/ENSECAG00000024339/ENSECAG00000017216/ENSECAG00000000558/ENSECAG00000024346/ENSECAG00000011761/ENSECAG00000018796/ENSECAG00000022574/ENSECAG00000016257/ENSECAG00000015087/ENSECAG00000006756/ENSECAG00000000048/ENSECAG00000007671/ENSECAG00000028265/ENSECAG00000015175/ENSECAG00000010584/ENSECAG00000007795/ENSECAG00000021478/ENSECAG00000012967/ENSECAG00000006771/ENSECAG00000004044/ENSECAG00000010080/ENSECAG00000007103/ENSECAG00000008511/ENSECAG00000022158/ENSECAG00000057017/ENSECAG00000014586/ENSECAG00000015929/ENSECAG00000018948/ENSECAG00000014460/ENSECAG00000018307/ENSECAG00000024299/ENSECAG00000021223/ENSECAG00000016632/ENSECAG00000022617/ENSECAG00000018332/ENSECAG00000009275/ENSECAG00000016977/ENSECAG00000009872/ENSECAG00000018489/ENSECAG00000020168/ENSECAG00000008264/ENSECAG00000019121/ENSECAG00000009799/ENSECAG00000025015/ENSECAG00000017015/ENSECAG00000013890/ENSECAG00000017000/ENSECAG00000015944/ENSECAG00000016526/ENSECAG00000018176/ENSECAG00000013447/ENSECAG00000008046/ENSECAG00000022585/ENSECAG00000022822/ENSECAG00000021823/ENSECAG00000019290/ENSECAG00000017840/ENSECAG00000014365/ENSECAG00000015548/ENSECAG00000008775/ENSECAG00000010711/ENSECAG00000014017/ENSECAG00000016283/ENSECAG00000019786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=71%, list=19%, signal=57%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000004871/ENSECAG00000010778/ENSECAG00000022438/ENSECAG00000022731/ENSECAG00000038712/ENSECAG00000000480/ENSECAG00000018248/ENSECAG00000016615/ENSECAG00000009280/ENSECAG00000019436/ENSECAG00000013874/ENSECAG00000012627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0035091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphatidylinositol binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=77%, list=34%, signal=52%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000016464/ENSECAG00000036345/ENSECAG00000013110/ENSECAG00000021502/ENSECAG00000019447/ENSECAG00000024352/ENSECAG00000010874/ENSECAG00000007426/ENSECAG00000007104/ENSECAG00000014364/ENSECAG00000008857/ENSECAG00000012176/ENSECAG00000017202/ENSECAG00000022664/ENSECAG00000016884/ENSECAG00000017473/ENSECAG00000020824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blood coagulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=63%, list=18%, signal=52%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000007979/ENSECAG00000010619/ENSECAG00000014646/ENSECAG00000027768/ENSECAG00000022910/ENSECAG00000008280/ENSECAG00000016570/ENSECAG00000010239/ENSECAG00000014493/ENSECAG00000015294/ENSECAG00000010778/ENSECAG00000048765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AverageTreatmentEffect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hemostasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=75%, list=18%, signal=62%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000007979/ENSECAG00000014646/ENSECAG00000027768/ENSECAG00000008280/ENSECAG00000016570/ENSECAG00000010239/ENSECAG00000014493/ENSECAG00000015294/ENSECAG00000010778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=32%, list=19%, signal=28%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000012910/ENSECAG00000020769/ENSECAG00000007979/ENSECAG00000008303/ENSECAG00000010619/ENSECAG00000013757/ENSECAG00000015369/ENSECAG00000014646/ENSECAG00000038893/ENSECAG00000027768/ENSECAG00000019069/ENSECAG00000000548/ENSECAG00000016509/ENSECAG00000042952/ENSECAG00000008913/ENSECAG00000004871/ENSECAG00000022910/ENSECAG00000007010/ENSECAG00000038107/ENSECAG00000018248/ENSECAG00000015904/ENSECAG00000008280/ENSECAG00000000634/ENSECAG00000018126/ENSECAG00000020881/ENSECAG00000016570/ENSECAG00000013693/ENSECAG00000007047/ENSECAG00000010239/ENSECAG00000023841/ENSECAG00000012395/ENSECAG00000024769/ENSECAG00000021211/ENSECAG00000014493/ENSECAG00000039785/ENSECAG00000010963/ENSECAG00000016475/ENSECAG00000018467/ENSECAG00000020887/ENSECAG00000004217/ENSECAG00000000701/ENSECAG00000019043/ENSECAG00000018345/ENSECAG00000021499/ENSECAG00000014405/ENSECAG00000004201/ENSECAG00000021314/ENSECAG00000008221/ENSECAG00000018113/ENSECAG00000015294/ENSECAG00000014688/ENSECAG00000021663/ENSECAG00000017644/ENSECAG00000017864/ENSECAG00000022438/ENSECAG00000008726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=59%, list=20%, signal=48%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000022617/ENSECAG00000018489/ENSECAG00000024299/ENSECAG00000009872/ENSECAG00000002756/ENSECAG00000007795/ENSECAG00000019786/ENSECAG00000014017/ENSECAG00000012967/ENSECAG00000018307/ENSECAG00000018176/ENSECAG00000008775/ENSECAG00000016283/ENSECAG00000012072/ENSECAG00000025015/ENSECAG00000020281/ENSECAG00000008264/ENSECAG00000011322/ENSECAG00000016977/ENSECAG00000019157/ENSECAG00000014150/ENSECAG00000042020/ENSECAG00000017840/ENSECAG00000023690/ENSECAG00000014460/ENSECAG00000006771/ENSECAG00000008331/ENSECAG00000008882/ENSECAG00000007599/ENSECAG00000016720/ENSECAG00000017000/ENSECAG00000024965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metformin_vs_AF_LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=35%, list=15%, signal=31%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000022815/ENSECAG00000024404/ENSECAG00000015528/ENSECAG00000010851/ENSECAG00000024013/ENSECAG00000013260/ENSECAG00000019235/ENSECAG00000016109/ENSECAG00000019466/ENSECAG00000015733/ENSECAG00000024190/ENSECAG00000003103/ENSECAG00000018984/ENSECAG00000009606/ENSECAG00000050063/ENSECAG00000004792/ENSECAG00000023505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=51%, list=16%, signal=44%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000014370/ENSECAG00000024404/ENSECAG00000010515/ENSECAG00000021385/ENSECAG00000009987/ENSECAG00000015528/ENSECAG00000010851/ENSECAG00000016109/ENSECAG00000024467/ENSECAG00000019466/ENSECAG00000015733/ENSECAG00000008264/ENSECAG00000018984/ENSECAG00000009606/ENSECAG00000013404/ENSECAG00000050063/ENSECAG00000018773/ENSECAG00000004792/ENSECAG00000023505/ENSECAG00000022018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0035556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intracellular signal transduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=60%, list=16%, signal=51%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000022617/ENSECAG00000024267/ENSECAG00000007795/ENSECAG00000018307/ENSECAG00000012072/ENSECAG00000012659/ENSECAG00000015288/ENSECAG00000018796/ENSECAG00000020281/ENSECAG00000008264/ENSECAG00000011322/ENSECAG00000010692/ENSECAG00000008471/ENSECAG00000018191/ENSECAG00000019157/ENSECAG00000017840/ENSECAG00000023690/ENSECAG00000011700/ENSECAG00000014460/ENSECAG00000006771/ENSECAG00000008331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=47%, list=11%, signal=42%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000010711/ENSECAG00000017473/ENSECAG00000018411/ENSECAG00000009987/ENSECAG00000012845/ENSECAG00000022158/ENSECAG00000017165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=42%, list=20%, signal=34%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000009872/ENSECAG00000024189/ENSECAG00000014017/ENSECAG00000019955/ENSECAG00000018332/ENSECAG00000018176/ENSECAG00000016283/ENSECAG00000019235/ENSECAG00000012072/ENSECAG00000018796/ENSECAG00000009799/ENSECAG00000019803/ENSECAG00000016439/ENSECAG00000020281/ENSECAG00000008264/ENSECAG00000011322/ENSECAG00000010080/ENSECAG00000023067/ENSECAG00000022822/ENSECAG00000019157/ENSECAG00000017840/ENSECAG00000007707/ENSECAG00000023690/ENSECAG00000014460/ENSECAG00000016847/ENSECAG00000006771/ENSECAG00000013449/ENSECAG00000011235/ENSECAG00000016720/ENSECAG00000017000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0000209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein polyubiquitination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=56%, list=15%, signal=48%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000022815/ENSECAG00000024404/ENSECAG00000021385/ENSECAG00000010851/ENSECAG00000016647/ENSECAG00000017934/ENSECAG00000019466/ENSECAG00000014586/ENSECAG00000050063/ENSECAG00000004792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=60%, list=9%, signal=55%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000010711/ENSECAG00000002756/ENSECAG00000018948/ENSECAG00000022426/ENSECAG00000016438/ENSECAG00000008264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=81%, list=32%, signal=56%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000018238/ENSECAG00000010175/ENSECAG00000021477/ENSECAG00000015914/ENSECAG00000017656/ENSECAG00000020610/ENSECAG00000009904/ENSECAG00000000682/ENSECAG00000017188/ENSECAG00000009102/ENSECAG00000004655/ENSECAG00000027681/ENSECAG00000021275/ENSECAG00000039611/ENSECAG00000027684/ENSECAG00000022520/ENSECAG00000014853/ENSECAG00000011681/ENSECAG00000018123/ENSECAG00000013454/ENSECAG00000015610/ENSECAG00000020674/ENSECAG00000021690/ENSECAG00000000402/ENSECAG00000021948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=45%, list=20%, signal=37%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000010711/ENSECAG00000017473/ENSECAG00000024267/ENSECAG00000017566/ENSECAG00000017216/ENSECAG00000026807/ENSECAG00000022158/ENSECAG00000019509/ENSECAG00000011638/ENSECAG00000005219/ENSECAG00000006850/ENSECAG00000039088/ENSECAG00000002380/ENSECAG00000028265/ENSECAG00000009844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=56%, list=20%, signal=46%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000022617/ENSECAG00000018489/ENSECAG00000024299/ENSECAG00000009872/ENSECAG00000002756/ENSECAG00000007795/ENSECAG00000019786/ENSECAG00000014017/ENSECAG00000012967/ENSECAG00000018307/ENSECAG00000018176/ENSECAG00000008775/ENSECAG00000012072/ENSECAG00000025015/ENSECAG00000020281/ENSECAG00000008264/ENSECAG00000011322/ENSECAG00000010080/ENSECAG00000016977/ENSECAG00000022822/ENSECAG00000019157/ENSECAG00000014150/ENSECAG00000042020/ENSECAG00000017840/ENSECAG00000023690/ENSECAG00000014460/ENSECAG00000006771/ENSECAG00000008331/ENSECAG00000008882/ENSECAG00000007599/ENSECAG00000010774/ENSECAG00000016720/ENSECAG00000017000/ENSECAG00000024965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0061630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubiquitin protein ligase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=52%, list=16%, signal=44%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000022815/ENSECAG00000014370/ENSECAG00000024404/ENSECAG00000021385/ENSECAG00000010851/ENSECAG00000013546/ENSECAG00000016109/ENSECAG00000024467/ENSECAG00000017934/ENSECAG00000019466/ENSECAG00000015733/ENSECAG00000018984/ENSECAG00000004792/ENSECAG00000023505/ENSECAG00000022574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=57%, list=20%, signal=46%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000022617/ENSECAG00000018489/ENSECAG00000024299/ENSECAG00000009872/ENSECAG00000019786/ENSECAG00000014017/ENSECAG00000012967/ENSECAG00000018307/ENSECAG00000016283/ENSECAG00000025015/ENSECAG00000020281/ENSECAG00000008264/ENSECAG00000011322/ENSECAG00000010080/ENSECAG00000016977/ENSECAG00000019157/ENSECAG00000017840/ENSECAG00000023690/ENSECAG00000014460/ENSECAG00000006771/ENSECAG00000008331/ENSECAG00000008882/ENSECAG00000007599/ENSECAG00000016720/ENSECAG00000017000/ENSECAG00000024965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=28%, list=19%, signal=26%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000010711/ENSECAG00000022617/ENSECAG00000018489/ENSECAG00000024299/ENSECAG00000009872/ENSECAG00000002756/ENSECAG00000008046/ENSECAG00000013447/ENSECAG00000020218/ENSECAG00000007795/ENSECAG00000019786/ENSECAG00000017216/ENSECAG00000019844/ENSECAG00000014017/ENSECAG00000012967/ENSECAG00000018307/ENSECAG00000018948/ENSECAG00000018332/ENSECAG00000021478/ENSECAG00000018176/ENSECAG00000008775/ENSECAG00000035260/ENSECAG00000024898/ENSECAG00000016283/ENSECAG00000008773/ENSECAG00000007103/ENSECAG00000012072/ENSECAG00000025015/ENSECAG00000022426/ENSECAG00000012659/ENSECAG00000015548/ENSECAG00000022158/ENSECAG00000018796/ENSECAG00000009799/ENSECAG00000019803/ENSECAG00000010772/ENSECAG00000015929/ENSECAG00000020281/ENSECAG00000008264/ENSECAG00000015175/ENSECAG00000014586/ENSECAG00000011322/ENSECAG00000010080/ENSECAG00000023067/ENSECAG00000016977/ENSECAG00000010401/ENSECAG00000022822/ENSECAG00000009275/ENSECAG00000019121/ENSECAG00000016526/ENSECAG00000021989/ENSECAG00000011638/ENSECAG00000011687/ENSECAG00000019157/ENSECAG00000014150/ENSECAG00000042020/ENSECAG00000017840/ENSECAG00000009636/ENSECAG00000007707/ENSECAG00000021223/ENSECAG00000023690/ENSECAG00000008963/ENSECAG00000003503/ENSECAG00000014460/ENSECAG00000016847/ENSECAG00000006771/ENSECAG00000008331/ENSECAG00000022574/ENSECAG00000008882/ENSECAG00000011419/ENSECAG00000019831/ENSECAG00000021932/ENSECAG00000013449/ENSECAG00000017390/ENSECAG00000028265/ENSECAG00000007599/ENSECAG00000000048/ENSECAG00000011235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=27%, list=20%, signal=24%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000024404/ENSECAG00000021385/ENSECAG00000009872/ENSECAG00000014755/ENSECAG00000010851/ENSECAG00000013447/ENSECAG00000014017/ENSECAG00000018332/ENSECAG00000018176/ENSECAG00000013032/ENSECAG00000024898/ENSECAG00000016283/ENSECAG00000012072/ENSECAG00000003330/ENSECAG00000014579/ENSECAG00000013653/ENSECAG00000018796/ENSECAG00000019803/ENSECAG00000009217/ENSECAG00000019466/ENSECAG00000013563/ENSECAG00000008264/ENSECAG00000014586/ENSECAG00000011322/ENSECAG00000010080/ENSECAG00000012599/ENSECAG00000023067/ENSECAG00000022822/ENSECAG00000019004/ENSECAG00000011687/ENSECAG00000019157/ENSECAG00000007707/ENSECAG00000006182/ENSECAG00000017593/ENSECAG00000023690/ENSECAG00000004792/ENSECAG00000023505/ENSECAG00000012484/ENSECAG00000014460/ENSECAG00000016847/ENSECAG00000006771/ENSECAG00000008331/ENSECAG00000014096/ENSECAG00000021932/ENSECAG00000013449/ENSECAG00000013727/ENSECAG00000011235/ENSECAG00000016720/ENSECAG00000017000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=42%, list=32%, signal=33%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000010711/ENSECAG00000022617/ENSECAG00000021929/ENSECAG00000024299/ENSECAG00000009872/ENSECAG00000013447/ENSECAG00000020218/ENSECAG00000019786/ENSECAG00000017216/ENSECAG00000019844/ENSECAG00000014017/ENSECAG00000018307/ENSECAG00000018948/ENSECAG00000018332/ENSECAG00000021478/ENSECAG00000013659/ENSECAG00000018176/ENSECAG00000019180/ENSECAG00000008775/ENSECAG00000024898/ENSECAG00000008773/ENSECAG00000007103/ENSECAG00000012072/ENSECAG00000025015/ENSECAG00000015548/ENSECAG00000022158/ENSECAG00000018796/ENSECAG00000022341/ENSECAG00000009799/ENSECAG00000019803/ENSECAG00000010772/ENSECAG00000015929/ENSECAG00000000102/ENSECAG00000009727/ENSECAG00000020281/ENSECAG00000008264/ENSECAG00000015175/ENSECAG00000014586/ENSECAG00000011322/ENSECAG00000010080/ENSECAG00000023067/ENSECAG00000016977/ENSECAG00000010401/ENSECAG00000022822/ENSECAG00000009275/ENSECAG00000019121/ENSECAG00000016526/ENSECAG00000021989/ENSECAG00000024243/ENSECAG00000011638/ENSECAG00000013982/ENSECAG00000009478/ENSECAG00000005219/ENSECAG00000011687/ENSECAG00000009169/ENSECAG00000023081/ENSECAG00000019157/ENSECAG00000014150/ENSECAG00000042020/ENSECAG00000017840/ENSECAG00000007707/ENSECAG00000021223/ENSECAG00000023690/ENSECAG00000008963/ENSECAG00000019611/ENSECAG00000014460/ENSECAG00000016847/ENSECAG00000006771/ENSECAG00000008331/ENSECAG00000008882/ENSECAG00000019831/ENSECAG00000021932/ENSECAG00000013449/ENSECAG00000018608/ENSECAG00000017390/ENSECAG00000028265/ENSECAG00000000048/ENSECAG00000011235/ENSECAG00000016720/ENSECAG00000017000/ENSECAG00000024965/ENSECAG00000014872/ENSECAG00000006756/ENSECAG00000006640/ENSECAG00000008511/ENSECAG00000020633/ENSECAG00000020547/ENSECAG00000009901/ENSECAG00000018651/ENSECAG00000002306/ENSECAG00000017015/ENSECAG00000019862/ENSECAG00000020813/ENSECAG00000016701/ENSECAG00000011140/ENSECAG00000014964/ENSECAG00000010610/ENSECAG00000009877/ENSECAG00000010584/ENSECAG00000009774/ENSECAG00000013890/ENSECAG00000011761/ENSECAG00000038126/ENSECAG00000033788/ENSECAG00000011118/ENSECAG00000009054/ENSECAG00000004470/ENSECAG00000023185/ENSECAG00000051991/ENSECAG00000014276/ENSECAG00000023115/ENSECAG00000024226/ENSECAG00000016147/ENSECAG00000024315/ENSECAG00000015112/ENSECAG00000013424/ENSECAG00000014365/ENSECAG00000000558/ENSECAG00000011552/ENSECAG00000019192/ENSECAG00000025159/ENSECAG00000019915/ENSECAG00000012020/ENSECAG00000013133/ENSECAG00000015087/ENSECAG00000020234/ENSECAG00000015469/ENSECAG00000023086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=53%, list=24%, signal=42%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000022469/ENSECAG00000009065/ENSECAG00000023179/ENSECAG00000009573/ENSECAG00000011670/ENSECAG00000008620/ENSECAG00000016190/ENSECAG00000007319/ENSECAG00000016939/ENSECAG00000014926/ENSECAG00000012463/ENSECAG00000015089/ENSECAG00000024336/ENSECAG00000000370/ENSECAG00000016340/ENSECAG00000026813/ENSECAG00000013915/ENSECAG00000017154/ENSECAG00000008403/ENSECAG00000019293/ENSECAG00000014928/ENSECAG00000014090/ENSECAG00000020841/ENSECAG00000007778/ENSECAG00000022485/ENSECAG00000021867/ENSECAG00000020316/ENSECAG00000031968/ENSECAG00000020632/ENSECAG00000020665/ENSECAG00000015258/ENSECAG00000024268/ENSECAG00000021927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metformin_vs_AF_RA</t>
   </si>
   <si>
     <t xml:space="preserve">GO:1990904</t>
@@ -258,277 +1153,19 @@
     <t xml:space="preserve">ribonucleoprotein complex</t>
   </si>
   <si>
-    <t xml:space="preserve">tags=36%, list=17%, signal=31%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000024268/ENSECAG00000010156/ENSECAG00000018545/ENSECAG00000012515/ENSECAG00000015258/ENSECAG00000021927/ENSECAG00000022469/ENSECAG00000007319/ENSECAG00000019293/ENSECAG00000020316/ENSECAG00000024965/ENSECAG00000021989/ENSECAG00000016340/ENSECAG00000020665/ENSECAG00000013915/ENSECAG00000011670/ENSECAG00000020632/ENSECAG00000020978/ENSECAG00000012110/ENSECAG00000013062/ENSECAG00000015089/ENSECAG00000012463/ENSECAG00000009065/ENSECAG00000011157/ENSECAG00000013269/ENSECAG00000016779/ENSECAG00000007917/ENSECAG00000023179/ENSECAG00000016190/ENSECAG00000026813/ENSECAG00000044806/ENSECAG00000024336/ENSECAG00000022485/ENSECAG00000058389/ENSECAG00000009573/ENSECAG00000014090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0005576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extracellular region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=39%, list=20%, signal=33%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000008365/ENSECAG00000018717/ENSECAG00000009665/ENSECAG00000010305/ENSECAG00000021278/ENSECAG00000015766/ENSECAG00000057145/ENSECAG00000014282/ENSECAG00000012502/ENSECAG00000002521/ENSECAG00000004709/ENSECAG00000024845/ENSECAG00000015875/ENSECAG00000022165/ENSECAG00000009896/ENSECAG00000013388/ENSECAG00000007861/ENSECAG00000013968/ENSECAG00000020413/ENSECAG00000015604/ENSECAG00000011854/ENSECAG00000013324/ENSECAG00000012961/ENSECAG00000011727/ENSECAG00000013087/ENSECAG00000008859/ENSECAG00000018101/ENSECAG00000024138/ENSECAG00000021766/ENSECAG00000025159/ENSECAG00000018104/ENSECAG00000016475/ENSECAG00000000634/ENSECAG00000014892/ENSECAG00000015294/ENSECAG00000025065/ENSECAG00000019691/ENSECAG00000019665/ENSECAG00000024267/ENSECAG00000038893/ENSECAG00000021895/ENSECAG00000003260/ENSECAG00000020769/ENSECAG00000022804/ENSECAG00000017555/ENSECAG00000010227/ENSECAG00000007670/ENSECAG00000020296/ENSECAG00000013301/ENSECAG00000022273/ENSECAG00000018178/ENSECAG00000011627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=80%, list=16%, signal=67%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000020931/ENSECAG00000010156/ENSECAG00000018545/ENSECAG00000048211/ENSECAG00000012110/ENSECAG00000008987/ENSECAG00000044806/ENSECAG00000014964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=61%, list=18%, signal=50%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000020316/ENSECAG00000020665/ENSECAG00000000370/ENSECAG00000013915/ENSECAG00000015089/ENSECAG00000012463/ENSECAG00000023179/ENSECAG00000026813/ENSECAG00000016489/ENSECAG00000031968/ENSECAG00000058389/ENSECAG00000009573/ENSECAG00000014090/ENSECAG00000008403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0005681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spliceosomal complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=68%, list=21%, signal=55%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000008676/ENSECAG00000033467/ENSECAG00000023868/ENSECAG00000017333/ENSECAG00000025104/ENSECAG00000022373/ENSECAG00000024461/ENSECAG00000013936/ENSECAG00000024257/ENSECAG00000000782/ENSECAG00000007803/ENSECAG00000012701/ENSECAG00000011508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0071013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">catalytic step 2 spliceosome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=84%, list=29%, signal=61%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000003229/ENSECAG00000052510/ENSECAG00000011612/ENSECAG00000008676/ENSECAG00000023868/ENSECAG00000017333/ENSECAG00000025104/ENSECAG00000007955/ENSECAG00000022373/ENSECAG00000024461/ENSECAG00000014429/ENSECAG00000019985/ENSECAG00000013733/ENSECAG00000016654/ENSECAG00000000782/ENSECAG00000007803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0005925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">focal adhesion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=44%, list=23%, signal=35%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000004725/ENSECAG00000012072/ENSECAG00000037857/ENSECAG00000013481/ENSECAG00000014150/ENSECAG00000024979/ENSECAG00000015514/ENSECAG00000021377/ENSECAG00000018511/ENSECAG00000019476/ENSECAG00000017490/ENSECAG00000023122/ENSECAG00000000413/ENSECAG00000011456/ENSECAG00000014723/ENSECAG00000014975/ENSECAG00000014711/ENSECAG00000008893/ENSECAG00000009134/ENSECAG00000007818/ENSECAG00000009009/ENSECAG00000007599/ENSECAG00000021241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=32%, list=24%, signal=26%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000021948/ENSECAG00000023250/ENSECAG00000013537/ENSECAG00000027694/ENSECAG00000012469/ENSECAG00000012512/ENSECAG00000012072/ENSECAG00000010779/ENSECAG00000027684/ENSECAG00000000017/ENSECAG00000013915/ENSECAG00000000584/ENSECAG00000017883/ENSECAG00000013738/ENSECAG00000027681/ENSECAG00000024045/ENSECAG00000027692/ENSECAG00000018123/ENSECAG00000016788/ENSECAG00000013441/ENSECAG00000011722/ENSECAG00000000402/ENSECAG00000000643/ENSECAG00000017656/ENSECAG00000011331/ENSECAG00000008125/ENSECAG00000009102/ENSECAG00000018569/ENSECAG00000009904/ENSECAG00000000160/ENSECAG00000039611/ENSECAG00000018238/ENSECAG00000022520/ENSECAG00000049440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=64%, list=17%, signal=55%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000024268/ENSECAG00000010156/ENSECAG00000018545/ENSECAG00000012515/ENSECAG00000015258/ENSECAG00000021927/ENSECAG00000013272/ENSECAG00000022469/ENSECAG00000009188/ENSECAG00000007319/ENSECAG00000019293/ENSECAG00000020316/ENSECAG00000016340/ENSECAG00000020665/ENSECAG00000000370/ENSECAG00000013915/ENSECAG00000011670/ENSECAG00000020632/ENSECAG00000020978/ENSECAG00000012110/ENSECAG00000013062/ENSECAG00000049946/ENSECAG00000015089/ENSECAG00000012463/ENSECAG00000009065/ENSECAG00000011157/ENSECAG00000013269/ENSECAG00000008987/ENSECAG00000016779/ENSECAG00000023179/ENSECAG00000016190/ENSECAG00000026813/ENSECAG00000044806/ENSECAG00000016489/ENSECAG00000012333/ENSECAG00000024336/ENSECAG00000031968/ENSECAG00000022485/ENSECAG00000058389/ENSECAG00000009573/ENSECAG00000014090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0003676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nucleic acid binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=45%, list=21%, signal=37%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000008676/ENSECAG00000010867/ENSECAG00000023868/ENSECAG00000018305/ENSECAG00000013654/ENSECAG00000018754/ENSECAG00000017333/ENSECAG00000005731/ENSECAG00000025104/ENSECAG00000007190/ENSECAG00000008338/ENSECAG00000028247/ENSECAG00000014429/ENSECAG00000023575/ENSECAG00000007560/ENSECAG00000008664/ENSECAG00000018845/ENSECAG00000004044/ENSECAG00000011727/ENSECAG00000011652/ENSECAG00000032164/ENSECAG00000018659/ENSECAG00000055320/ENSECAG00000019845/ENSECAG00000012292/ENSECAG00000021823/ENSECAG00000013936/ENSECAG00000013733/ENSECAG00000005988/ENSECAG00000024257/ENSECAG00000016654/ENSECAG00000000782/ENSECAG00000012677/ENSECAG00000011805/ENSECAG00000015682/ENSECAG00000009901/ENSECAG00000017832/ENSECAG00000012701/ENSECAG00000011508/ENSECAG00000014822/ENSECAG00000022692/ENSECAG00000022234/ENSECAG00000018741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=42%, list=19%, signal=35%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000012110/ENSECAG00000031968/ENSECAG00000015258/ENSECAG00000021927/ENSECAG00000018545/ENSECAG00000010157/ENSECAG00000020665/ENSECAG00000026813/ENSECAG00000012515/ENSECAG00000004470/ENSECAG00000049946/ENSECAG00000016779/ENSECAG00000024268/ENSECAG00000010156/ENSECAG00000020632/ENSECAG00000013062/ENSECAG00000015089/ENSECAG00000022469/ENSECAG00000021065/ENSECAG00000009065/ENSECAG00000020316/ENSECAG00000019293/ENSECAG00000016340/ENSECAG00000011670/ENSECAG00000000370/ENSECAG00000023179/ENSECAG00000014926/ENSECAG00000007319/ENSECAG00000008403/ENSECAG00000004931/ENSECAG00000014620/ENSECAG00000023253/ENSECAG00000008987/ENSECAG00000011157/ENSECAG00000021867/ENSECAG00000016653/ENSECAG00000014276/ENSECAG00000008963/ENSECAG00000018202/ENSECAG00000013915/ENSECAG00000020363/ENSECAG00000044806/ENSECAG00000006640/ENSECAG00000016489/ENSECAG00000012463/ENSECAG00000020854/ENSECAG00000007778/ENSECAG00000016190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AverageDiseaseEffect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=74%, list=25%, signal=57%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000021948/ENSECAG00000027684/ENSECAG00000014140/ENSECAG00000000402/ENSECAG00000010580/ENSECAG00000027694/ENSECAG00000010779/ENSECAG00000017188/ENSECAG00000027681/ENSECAG00000017656/ENSECAG00000018238/ENSECAG00000000682/ENSECAG00000005530/ENSECAG00000021275/ENSECAG00000009102/ENSECAG00000013454/ENSECAG00000039611/ENSECAG00000011681/ENSECAG00000049440/ENSECAG00000017527/ENSECAG00000015610/ENSECAG00000015914/ENSECAG00000010175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=69%, list=19%, signal=58%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000012110/ENSECAG00000031968/ENSECAG00000015258/ENSECAG00000021927/ENSECAG00000018545/ENSECAG00000010157/ENSECAG00000020665/ENSECAG00000026813/ENSECAG00000012515/ENSECAG00000049946/ENSECAG00000016779/ENSECAG00000024268/ENSECAG00000010156/ENSECAG00000020632/ENSECAG00000013062/ENSECAG00000015089/ENSECAG00000000008/ENSECAG00000022469/ENSECAG00000021065/ENSECAG00000009065/ENSECAG00000020316/ENSECAG00000019293/ENSECAG00000016340/ENSECAG00000011670/ENSECAG00000003600/ENSECAG00000000370/ENSECAG00000023179/ENSECAG00000014926/ENSECAG00000007319/ENSECAG00000008548/ENSECAG00000008403/ENSECAG00000008987/ENSECAG00000011157/ENSECAG00000021867/ENSECAG00000020978/ENSECAG00000022567/ENSECAG00000013915/ENSECAG00000020363/ENSECAG00000044806/ENSECAG00000016489/ENSECAG00000012463/ENSECAG00000007778/ENSECAG00000016190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=86%, list=21%, signal=68%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000015258/ENSECAG00000021927/ENSECAG00000010157/ENSECAG00000020665/ENSECAG00000026813/ENSECAG00000009188/ENSECAG00000020632/ENSECAG00000000008/ENSECAG00000022469/ENSECAG00000021065/ENSECAG00000011670/ENSECAG00000023179/ENSECAG00000008548/ENSECAG00000008403/ENSECAG00000016489/ENSECAG00000007778/ENSECAG00000014090/ENSECAG00000024095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=77%, list=25%, signal=59%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000021948/ENSECAG00000027684/ENSECAG00000000402/ENSECAG00000022520/ENSECAG00000018123/ENSECAG00000027694/ENSECAG00000010779/ENSECAG00000017188/ENSECAG00000027681/ENSECAG00000017656/ENSECAG00000018238/ENSECAG00000000682/ENSECAG00000021275/ENSECAG00000009102/ENSECAG00000013454/ENSECAG00000039611/ENSECAG00000011681/ENSECAG00000009904/ENSECAG00000021690/ENSECAG00000049440/ENSECAG00000014853/ENSECAG00000015610/ENSECAG00000015914/ENSECAG00000010175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=43%, list=21%, signal=35%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000012110/ENSECAG00000015258/ENSECAG00000021927/ENSECAG00000018545/ENSECAG00000010157/ENSECAG00000020665/ENSECAG00000026813/ENSECAG00000012515/ENSECAG00000016779/ENSECAG00000024268/ENSECAG00000010156/ENSECAG00000020632/ENSECAG00000013062/ENSECAG00000024965/ENSECAG00000015089/ENSECAG00000000008/ENSECAG00000022469/ENSECAG00000021065/ENSECAG00000009065/ENSECAG00000020316/ENSECAG00000021989/ENSECAG00000019293/ENSECAG00000016340/ENSECAG00000011670/ENSECAG00000003600/ENSECAG00000023179/ENSECAG00000014926/ENSECAG00000007319/ENSECAG00000008548/ENSECAG00000008403/ENSECAG00000004216/ENSECAG00000011157/ENSECAG00000021867/ENSECAG00000025091/ENSECAG00000020978/ENSECAG00000013915/ENSECAG00000044806/ENSECAG00000012463/ENSECAG00000007778/ENSECAG00000016190/ENSECAG00000021777/ENSECAG00000014090/ENSECAG00000018653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=48%, list=22%, signal=39%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000012512/ENSECAG00000021948/ENSECAG00000027684/ENSECAG00000012469/ENSECAG00000027692/ENSECAG00000013537/ENSECAG00000000402/ENSECAG00000000017/ENSECAG00000013738/ENSECAG00000000584/ENSECAG00000013993/ENSECAG00000000160/ENSECAG00000022520/ENSECAG00000018123/ENSECAG00000027694/ENSECAG00000011722/ENSECAG00000008844/ENSECAG00000010779/ENSECAG00000017188/ENSECAG00000016937/ENSECAG00000027681/ENSECAG00000011458/ENSECAG00000011331/ENSECAG00000017656/ENSECAG00000018238/ENSECAG00000024045/ENSECAG00000000682/ENSECAG00000021275/ENSECAG00000016788/ENSECAG00000014836/ENSECAG00000000643/ENSECAG00000009487/ENSECAG00000041550/ENSECAG00000009102/ENSECAG00000013915/ENSECAG00000013454/ENSECAG00000024248/ENSECAG00000008125/ENSECAG00000039611/ENSECAG00000023250/ENSECAG00000010152/ENSECAG00000011681/ENSECAG00000004824/ENSECAG00000009904/ENSECAG00000013441/ENSECAG00000002088/ENSECAG00000049440/ENSECAG00000000861/ENSECAG00000018599/ENSECAG00000014853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=70%, list=21%, signal=55%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000031968/ENSECAG00000020665/ENSECAG00000026813/ENSECAG00000004470/ENSECAG00000015089/ENSECAG00000020316/ENSECAG00000000370/ENSECAG00000023179/ENSECAG00000008548/ENSECAG00000008403/ENSECAG00000013915/ENSECAG00000020363/ENSECAG00000016489/ENSECAG00000012463/ENSECAG00000014090/ENSECAG00000024095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=90%, list=18%, signal=74%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000031968/ENSECAG00000013062/ENSECAG00000009065/ENSECAG00000020316/ENSECAG00000016340/ENSECAG00000007319/ENSECAG00000021867/ENSECAG00000013915/ENSECAG00000012463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000012512/ENSECAG00000012469/ENSECAG00000027692/ENSECAG00000000584/ENSECAG00000000160/ENSECAG00000011722/ENSECAG00000011458/ENSECAG00000007968/ENSECAG00000004824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=80%, list=13%, signal=70%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000020931/ENSECAG00000012110/ENSECAG00000018545/ENSECAG00000048211/ENSECAG00000010156/ENSECAG00000007635/ENSECAG00000014926/ENSECAG00000008987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=50%, list=19%, signal=41%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000031968/ENSECAG00000024268/ENSECAG00000013062/ENSECAG00000015089/ENSECAG00000009065/ENSECAG00000020316/ENSECAG00000019293/ENSECAG00000016340/ENSECAG00000000370/ENSECAG00000020978/ENSECAG00000013915/ENSECAG00000012463/ENSECAG00000016190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0005739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitochondrion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=32%, list=26%, signal=29%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000012512/ENSECAG00000021948/ENSECAG00000013254/ENSECAG00000012110/ENSECAG00000018545/ENSECAG00000023870/ENSECAG00000020973/ENSECAG00000027684/ENSECAG00000019638/ENSECAG00000014140/ENSECAG00000012469/ENSECAG00000011982/ENSECAG00000004666/ENSECAG00000012507/ENSECAG00000048211/ENSECAG00000023888/ENSECAG00000027692/ENSECAG00000007495/ENSECAG00000039018/ENSECAG00000012515/ENSECAG00000008452/ENSECAG00000000398/ENSECAG00000013537/ENSECAG00000024482/ENSECAG00000000017/ENSECAG00000012956/ENSECAG00000010156/ENSECAG00000015142/ENSECAG00000013738/ENSECAG00000010580/ENSECAG00000000584/ENSECAG00000009054/ENSECAG00000013993/ENSECAG00000020283/ENSECAG00000000160/ENSECAG00000022520/ENSECAG00000013272/ENSECAG00000013362/ENSECAG00000018123/ENSECAG00000007635/ENSECAG00000014284/ENSECAG00000027694/ENSECAG00000026862/ENSECAG00000000449/ENSECAG00000016542/ENSECAG00000011722/ENSECAG00000023122/ENSECAG00000008844/ENSECAG00000010779/ENSECAG00000003600/ENSECAG00000021375/ENSECAG00000006819/ENSECAG00000023189/ENSECAG00000017188/ENSECAG00000016937/ENSECAG00000012575/ENSECAG00000027681/ENSECAG00000011458/ENSECAG00000018063/ENSECAG00000011331/ENSECAG00000014926/ENSECAG00000024226/ENSECAG00000017656/ENSECAG00000018238/ENSECAG00000008099/ENSECAG00000008987/ENSECAG00000010646/ENSECAG00000036379/ENSECAG00000000682/ENSECAG00000005530/ENSECAG00000011157/ENSECAG00000014846/ENSECAG00000015071/ENSECAG00000021275/ENSECAG00000010549/ENSECAG00000016788/ENSECAG00000006717/ENSECAG00000058238/ENSECAG00000014836/ENSECAG00000000643/ENSECAG00000009487/ENSECAG00000041550/ENSECAG00000007968/ENSECAG00000022567/ENSECAG00000009102/ENSECAG00000008611/ENSECAG00000015615/ENSECAG00000013454/ENSECAG00000024248/ENSECAG00000014175/ENSECAG00000009478/ENSECAG00000008125/ENSECAG00000020415/ENSECAG00000039611/ENSECAG00000023250/ENSECAG00000010152/ENSECAG00000011681/ENSECAG00000044806/ENSECAG00000006640/ENSECAG00000007084/ENSECAG00000016077/ENSECAG00000019408/ENSECAG00000004824/ENSECAG00000009904/ENSECAG00000013441/ENSECAG00000012793/ENSECAG00000002088/ENSECAG00000005517/ENSECAG00000022803/ENSECAG00000015121/ENSECAG00000023054/ENSECAG00000021241/ENSECAG00000049440/ENSECAG00000011931/ENSECAG00000020669/ENSECAG00000000861/ENSECAG00000018599/ENSECAG00000020813/ENSECAG00000020255/ENSECAG00000014853/ENSECAG00000007908/ENSECAG00000017527/ENSECAG00000020451/ENSECAG00000008220/ENSECAG00000001360/ENSECAG00000040364/ENSECAG00000018651/ENSECAG00000021986/ENSECAG00000020851/ENSECAG00000019373/ENSECAG00000015610/ENSECAG00000022539/ENSECAG00000018271/ENSECAG00000015914/ENSECAG00000000749/ENSECAG00000010175/ENSECAG00000020058/ENSECAG00000018569/ENSECAG00000014964/ENSECAG00000020263/ENSECAG00000019432/ENSECAG00000024945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0070469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">respirasome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=65%, list=18%, signal=54%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000027684/ENSECAG00000027692/ENSECAG00000022520/ENSECAG00000018123/ENSECAG00000027694/ENSECAG00000017188/ENSECAG00000027681/ENSECAG00000017656/ENSECAG00000018238/ENSECAG00000021275/ENSECAG00000039611/ENSECAG00000011681/ENSECAG00000004824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0031966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitochondrial membrane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=42%, list=21%, signal=34%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000027684/ENSECAG00000012469/ENSECAG00000027692/ENSECAG00000008452/ENSECAG00000015142/ENSECAG00000013993/ENSECAG00000000160/ENSECAG00000036379/ENSECAG00000005530/ENSECAG00000007968/ENSECAG00000013454/ENSECAG00000024248/ENSECAG00000023135/ENSECAG00000049440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=69%, list=19%, signal=57%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000012110/ENSECAG00000031968/ENSECAG00000015258/ENSECAG00000021927/ENSECAG00000018545/ENSECAG00000010157/ENSECAG00000020665/ENSECAG00000026813/ENSECAG00000012515/ENSECAG00000009188/ENSECAG00000049946/ENSECAG00000016779/ENSECAG00000024268/ENSECAG00000010156/ENSECAG00000020632/ENSECAG00000013062/ENSECAG00000013272/ENSECAG00000007635/ENSECAG00000015089/ENSECAG00000000008/ENSECAG00000022469/ENSECAG00000021065/ENSECAG00000009065/ENSECAG00000020316/ENSECAG00000019293/ENSECAG00000016340/ENSECAG00000011670/ENSECAG00000003600/ENSECAG00000000370/ENSECAG00000023179/ENSECAG00000014926/ENSECAG00000007319/ENSECAG00000008548/ENSECAG00000008403/ENSECAG00000008987/ENSECAG00000011157/ENSECAG00000021867/ENSECAG00000020978/ENSECAG00000013915/ENSECAG00000044806/ENSECAG00000016489/ENSECAG00000012463/ENSECAG00000007778/ENSECAG00000016190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0007049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=40%, list=10%, signal=36%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000010711/ENSECAG00000017473/ENSECAG00000009987/ENSECAG00000018411/ENSECAG00000012845/ENSECAG00000022158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metformin_vs_AF_LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=60%, list=27%, signal=45%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000013062/ENSECAG00000014926/ENSECAG00000011670/ENSECAG00000049946/ENSECAG00000009065/ENSECAG00000058389/ENSECAG00000016939/ENSECAG00000017154/ENSECAG00000016489/ENSECAG00000009573/ENSECAG00000023179/ENSECAG00000012515/ENSECAG00000020841/ENSECAG00000007319/ENSECAG00000013915/ENSECAG00000016340/ENSECAG00000012463/ENSECAG00000008620/ENSECAG00000024336/ENSECAG00000000370/ENSECAG00000019293/ENSECAG00000008987/ENSECAG00000031968/ENSECAG00000015089/ENSECAG00000026813/ENSECAG00000014928/ENSECAG00000007778/ENSECAG00000014090/ENSECAG00000008403/ENSECAG00000022485/ENSECAG00000015258/ENSECAG00000020316/ENSECAG00000020665/ENSECAG00000021867/ENSECAG00000020632/ENSECAG00000021927/ENSECAG00000024268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metformin_vs_AF_RA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0055037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recycling endosome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=27%, list=2%, signal=26%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000024267/ENSECAG00000010434/ENSECAG00000014203/ENSECAG00000017555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=43%, list=9%, signal=39%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000026813/ENSECAG00000007778/ENSECAG00000014090/ENSECAG00000008403/ENSECAG00000015258/ENSECAG00000020665/ENSECAG00000020632/ENSECAG00000009188/ENSECAG00000021927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=46%, list=27%, signal=35%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000013062/ENSECAG00000014926/ENSECAG00000011670/ENSECAG00000023879/ENSECAG00000009065/ENSECAG00000058389/ENSECAG00000016939/ENSECAG00000011652/ENSECAG00000017154/ENSECAG00000000782/ENSECAG00000009573/ENSECAG00000021989/ENSECAG00000023179/ENSECAG00000016701/ENSECAG00000018653/ENSECAG00000052510/ENSECAG00000012515/ENSECAG00000020841/ENSECAG00000007319/ENSECAG00000013915/ENSECAG00000016340/ENSECAG00000012463/ENSECAG00000012464/ENSECAG00000008620/ENSECAG00000024336/ENSECAG00000023575/ENSECAG00000025110/ENSECAG00000019293/ENSECAG00000015089/ENSECAG00000004216/ENSECAG00000026813/ENSECAG00000014928/ENSECAG00000007778/ENSECAG00000014090/ENSECAG00000008403/ENSECAG00000022485/ENSECAG00000015258/ENSECAG00000007917/ENSECAG00000020316/ENSECAG00000020665/ENSECAG00000021867/ENSECAG00000020632/ENSECAG00000024920/ENSECAG00000021927/ENSECAG00000024268/ENSECAG00000024965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=35%, list=22%, signal=30%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000020296/ENSECAG00000004871/ENSECAG00000000548/ENSECAG00000013924/ENSECAG00000014493/ENSECAG00000024967/ENSECAG00000021663/ENSECAG00000010619/ENSECAG00000008303/ENSECAG00000007010/ENSECAG00000014646/ENSECAG00000014892/ENSECAG00000007670/ENSECAG00000016509/ENSECAG00000017370/ENSECAG00000010963/ENSECAG00000016570/ENSECAG00000015904/ENSECAG00000000634/ENSECAG00000012558/ENSECAG00000015369/ENSECAG00000021162/ENSECAG00000008221/ENSECAG00000014688/ENSECAG00000022910/ENSECAG00000021211/ENSECAG00000018345/ENSECAG00000017668/ENSECAG00000024769/ENSECAG00000042952/ENSECAG00000018467/ENSECAG00000013693/ENSECAG00000038893/ENSECAG00000018104/ENSECAG00000013301/ENSECAG00000020881/ENSECAG00000013486/ENSECAG00000016475/ENSECAG00000019382/ENSECAG00000017864/ENSECAG00000027768/ENSECAG00000010163/ENSECAG00000019043/ENSECAG00000012484/ENSECAG00000017644/ENSECAG00000000701/ENSECAG00000013424/ENSECAG00000010239/ENSECAG00000004201/ENSECAG00000009752/ENSECAG00000008280/ENSECAG00000014282/ENSECAG00000039785/ENSECAG00000008236/ENSECAG00000023841/ENSECAG00000015294/ENSECAG00000020887/ENSECAG00000021314/ENSECAG00000018113/ENSECAG00000008726/ENSECAG00000022438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags=59%, list=27%, signal=44%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000013062/ENSECAG00000014926/ENSECAG00000011670/ENSECAG00000049946/ENSECAG00000009065/ENSECAG00000058389/ENSECAG00000016939/ENSECAG00000017154/ENSECAG00000016489/ENSECAG00000009573/ENSECAG00000023179/ENSECAG00000012515/ENSECAG00000020841/ENSECAG00000007319/ENSECAG00000013915/ENSECAG00000016340/ENSECAG00000012463/ENSECAG00000024336/ENSECAG00000000370/ENSECAG00000019293/ENSECAG00000008987/ENSECAG00000031968/ENSECAG00000015089/ENSECAG00000026813/ENSECAG00000014928/ENSECAG00000007778/ENSECAG00000014090/ENSECAG00000008403/ENSECAG00000022485/ENSECAG00000013272/ENSECAG00000015258/ENSECAG00000020316/ENSECAG00000020665/ENSECAG00000021867/ENSECAG00000020632/ENSECAG00000009188/ENSECAG00000021927/ENSECAG00000024268</t>
+    <t xml:space="preserve">tags=41%, list=24%, signal=33%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000018653/ENSECAG00000022469/ENSECAG00000009065/ENSECAG00000012464/ENSECAG00000023575/ENSECAG00000023179/ENSECAG00000009573/ENSECAG00000021989/ENSECAG00000011670/ENSECAG00000008620/ENSECAG00000016190/ENSECAG00000007319/ENSECAG00000016939/ENSECAG00000014926/ENSECAG00000025110/ENSECAG00000012463/ENSECAG00000015089/ENSECAG00000024336/ENSECAG00000016340/ENSECAG00000052510/ENSECAG00000026813/ENSECAG00000013915/ENSECAG00000017154/ENSECAG00000008403/ENSECAG00000019293/ENSECAG00000014928/ENSECAG00000014090/ENSECAG00000020841/ENSECAG00000007778/ENSECAG00000022485/ENSECAG00000021867/ENSECAG00000020316/ENSECAG00000007917/ENSECAG00000004216/ENSECAG00000020632/ENSECAG00000020665/ENSECAG00000024920/ENSECAG00000015258/ENSECAG00000024268/ENSECAG00000021927/ENSECAG00000024965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags=33%, list=22%, signal=28%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000002962/ENSECAG00000024428/ENSECAG00000025161/ENSECAG00000016570/ENSECAG00000021162/ENSECAG00000010963/ENSECAG00000018345/ENSECAG00000007010/ENSECAG00000000548/ENSECAG00000017370/ENSECAG00000012558/ENSECAG00000014646/ENSECAG00000007047/ENSECAG00000017864/ENSECAG00000016509/ENSECAG00000010619/ENSECAG00000021211/ENSECAG00000022910/ENSECAG00000021663/ENSECAG00000019382/ENSECAG00000013486/ENSECAG00000038893/ENSECAG00000013693/ENSECAG00000013924/ENSECAG00000019069/ENSECAG00000018467/ENSECAG00000015904/ENSECAG00000027768/ENSECAG00000016475/ENSECAG00000042952/ENSECAG00000020881/ENSECAG00000013424/ENSECAG00000017668/ENSECAG00000000701/ENSECAG00000012484/ENSECAG00000010163/ENSECAG00000014282/ENSECAG00000008221/ENSECAG00000024769/ENSECAG00000013301/ENSECAG00000019043/ENSECAG00000014688/ENSECAG00000004201/ENSECAG00000017644/ENSECAG00000021499/ENSECAG00000008236/ENSECAG00000010239/ENSECAG00000009752/ENSECAG00000008280/ENSECAG00000023841/ENSECAG00000039785/ENSECAG00000021314/ENSECAG00000015294/ENSECAG00000020887/ENSECAG00000018113/ENSECAG00000008726/ENSECAG00000022438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000022469/ENSECAG00000009065/ENSECAG00000023179/ENSECAG00000009573/ENSECAG00000011670/ENSECAG00000016190/ENSECAG00000007319/ENSECAG00000016939/ENSECAG00000014926/ENSECAG00000012463/ENSECAG00000015089/ENSECAG00000024336/ENSECAG00000000370/ENSECAG00000016340/ENSECAG00000026813/ENSECAG00000013915/ENSECAG00000017154/ENSECAG00000008403/ENSECAG00000019293/ENSECAG00000014928/ENSECAG00000014090/ENSECAG00000020841/ENSECAG00000007778/ENSECAG00000022485/ENSECAG00000021867/ENSECAG00000020316/ENSECAG00000013272/ENSECAG00000031968/ENSECAG00000009188/ENSECAG00000020632/ENSECAG00000020665/ENSECAG00000015258/ENSECAG00000024268/ENSECAG00000021927</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0050839</t>
@@ -537,10 +1174,10 @@
     <t xml:space="preserve">cell adhesion molecule binding</t>
   </si>
   <si>
-    <t xml:space="preserve">tags=40%, list=8%, signal=37%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSECAG00000027768/ENSECAG00000013616/ENSECAG00000010239/ENSECAG00000016742/ENSECAG00000008280/ENSECAG00000023841</t>
+    <t xml:space="preserve">tags=40%, list=11%, signal=36%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSECAG00000027768/ENSECAG00000013616/ENSECAG00000016742/ENSECAG00000010239/ENSECAG00000008280/ENSECAG00000023841</t>
   </si>
 </sst>
 </file>
@@ -588,8 +1225,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N10" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:N10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N48" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:N48"/>
   <tableColumns count="14">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Description"/>
@@ -611,8 +1248,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:N18" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:N18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:N7" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:N7"/>
   <tableColumns count="14">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Description"/>
@@ -634,7 +1271,53 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:N17" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:N40" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:N40"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Description"/>
+    <tableColumn id="3" name="setSize"/>
+    <tableColumn id="4" name="enrichmentScore"/>
+    <tableColumn id="5" name="NES"/>
+    <tableColumn id="6" name="pvalue"/>
+    <tableColumn id="7" name="p.adjust"/>
+    <tableColumn id="8" name="qvalue"/>
+    <tableColumn id="9" name="rank"/>
+    <tableColumn id="10" name="leading_edge"/>
+    <tableColumn id="11" name="core_enrichment"/>
+    <tableColumn id="12" name="Contrast"/>
+    <tableColumn id="13" name="Database"/>
+    <tableColumn id="14" name="direction"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:N4" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:N4"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Description"/>
+    <tableColumn id="3" name="setSize"/>
+    <tableColumn id="4" name="enrichmentScore"/>
+    <tableColumn id="5" name="NES"/>
+    <tableColumn id="6" name="pvalue"/>
+    <tableColumn id="7" name="p.adjust"/>
+    <tableColumn id="8" name="qvalue"/>
+    <tableColumn id="9" name="rank"/>
+    <tableColumn id="10" name="leading_edge"/>
+    <tableColumn id="11" name="core_enrichment"/>
+    <tableColumn id="12" name="Contrast"/>
+    <tableColumn id="13" name="Database"/>
+    <tableColumn id="14" name="direction"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:N17" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:N17"/>
   <tableColumns count="14">
     <tableColumn id="1" name="ID"/>
@@ -656,32 +1339,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:N2" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:N2"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Description"/>
-    <tableColumn id="3" name="setSize"/>
-    <tableColumn id="4" name="enrichmentScore"/>
-    <tableColumn id="5" name="NES"/>
-    <tableColumn id="6" name="pvalue"/>
-    <tableColumn id="7" name="p.adjust"/>
-    <tableColumn id="8" name="qvalue"/>
-    <tableColumn id="9" name="rank"/>
-    <tableColumn id="10" name="leading_edge"/>
-    <tableColumn id="11" name="core_enrichment"/>
-    <tableColumn id="12" name="Contrast"/>
-    <tableColumn id="13" name="Database"/>
-    <tableColumn id="14" name="direction"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:N8" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:N8"/>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:N6" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:N6"/>
   <tableColumns count="14">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Description"/>
@@ -1042,22 +1702,22 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>0.663144795285448</v>
+        <v>0.693441328684283</v>
       </c>
       <c r="E2" t="n">
-        <v>2.23592626957496</v>
+        <v>2.49473187476484</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0000275645993760596</v>
+        <v>0.00000133906486866118</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00639498705524583</v>
+        <v>0.000310663049529395</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00603519649496884</v>
+        <v>0.000272041599633272</v>
       </c>
       <c r="I2" t="n">
-        <v>596</v>
+        <v>435</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -1083,25 +1743,25 @@
         <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D3" t="n">
-        <v>0.694322499765323</v>
+        <v>-0.518453605303711</v>
       </c>
       <c r="E3" t="n">
-        <v>2.2059701478409</v>
+        <v>-2.02155058287911</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00000880686265850331</v>
+        <v>0.0000269055299333721</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00131222253611699</v>
+        <v>0.00312104147227117</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00116806809996991</v>
+        <v>0.00273303540902148</v>
       </c>
       <c r="I3" t="n">
-        <v>670</v>
+        <v>286</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
@@ -1113,10 +1773,10 @@
         <v>18</v>
       </c>
       <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
         <v>25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1127,25 +1787,25 @@
         <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>0.536872092388143</v>
+        <v>-0.731209404425363</v>
       </c>
       <c r="E4" t="n">
-        <v>2.09700916537214</v>
+        <v>-2.16898881528057</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0000345559209859877</v>
+        <v>0.0000468103272846761</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00257441611345608</v>
+        <v>0.00361999864334829</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00229160318117603</v>
+        <v>0.00316996251436579</v>
       </c>
       <c r="I4" t="n">
-        <v>406</v>
+        <v>211</v>
       </c>
       <c r="J4" t="s">
         <v>28</v>
@@ -1157,10 +1817,10 @@
         <v>18</v>
       </c>
       <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
         <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1171,25 +1831,25 @@
         <v>31</v>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n">
-        <v>0.696804114756266</v>
+        <v>-0.555608978709219</v>
       </c>
       <c r="E5" t="n">
-        <v>2.04800674789958</v>
+        <v>-2.0363087184938</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000301178632031624</v>
+        <v>0.0000628490120682634</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0149585387242373</v>
+        <v>0.00364524269995928</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0133152658371876</v>
+        <v>0.00319206824451969</v>
       </c>
       <c r="I5" t="n">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="J5" t="s">
         <v>32</v>
@@ -1201,10 +1861,10 @@
         <v>18</v>
       </c>
       <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
         <v>25</v>
-      </c>
-      <c r="N5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -1215,25 +1875,25 @@
         <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>0.821491332249223</v>
+        <v>0.688446708287176</v>
       </c>
       <c r="E6" t="n">
-        <v>2.13065255124912</v>
+        <v>2.13181545005153</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000492028135315428</v>
+        <v>0.000213627711395183</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0183280480404997</v>
+        <v>0.00931020133863392</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0163146171183537</v>
+        <v>0.00815276251522844</v>
       </c>
       <c r="I6" t="n">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="J6" t="s">
         <v>36</v>
@@ -1245,7 +1905,7 @@
         <v>18</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N6" t="s">
         <v>20</v>
@@ -1259,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D7" t="n">
-        <v>0.800353196149986</v>
+        <v>-0.559329370350666</v>
       </c>
       <c r="E7" t="n">
-        <v>2.0758278417964</v>
+        <v>-1.99730065081422</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0010262327694727</v>
+        <v>0.000240781069102601</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0305817365302864</v>
+        <v>0.00931020133863392</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0272221745165389</v>
+        <v>0.00815276251522844</v>
       </c>
       <c r="I7" t="n">
-        <v>261</v>
+        <v>767</v>
       </c>
       <c r="J7" t="s">
         <v>40</v>
@@ -1289,10 +1949,10 @@
         <v>18</v>
       </c>
       <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" t="s">
         <v>25</v>
-      </c>
-      <c r="N7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1303,25 +1963,25 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>0.400432881565594</v>
+        <v>0.641412680278425</v>
       </c>
       <c r="E8" t="n">
-        <v>1.61391275895724</v>
+        <v>1.98617183467762</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00137377355166191</v>
+        <v>0.00132334131434407</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0341153765329375</v>
+        <v>0.0383768981159782</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0303676258788423</v>
+        <v>0.0336059044300535</v>
       </c>
       <c r="I8" t="n">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="J8" t="s">
         <v>44</v>
@@ -1333,7 +1993,7 @@
         <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N8" t="s">
         <v>20</v>
@@ -1347,25 +2007,25 @@
         <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>0.629502769934698</v>
+        <v>-0.76758032410678</v>
       </c>
       <c r="E9" t="n">
-        <v>1.81541306879615</v>
+        <v>-1.91493578005765</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00207542063371198</v>
+        <v>0.00116036613720625</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0441768106318692</v>
+        <v>0.0383768981159782</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0393237593755953</v>
+        <v>0.0336059044300535</v>
       </c>
       <c r="I9" t="n">
-        <v>403</v>
+        <v>275</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
@@ -1377,10 +2037,10 @@
         <v>18</v>
       </c>
       <c r="M9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" t="s">
         <v>25</v>
-      </c>
-      <c r="N9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1391,25 +2051,25 @@
         <v>51</v>
       </c>
       <c r="C10" t="n">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D10" t="n">
-        <v>0.561205708032846</v>
+        <v>0.708936337816524</v>
       </c>
       <c r="E10" t="n">
-        <v>2.17080914348976</v>
+        <v>2.00041894893578</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00000705851293498001</v>
+        <v>0.00196571849991839</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0010940695049219</v>
+        <v>0.0456046691981066</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00106249194705489</v>
+        <v>0.0399351232088683</v>
       </c>
       <c r="I10" t="n">
-        <v>705</v>
+        <v>251</v>
       </c>
       <c r="J10" t="s">
         <v>52</v>
@@ -1421,9 +2081,1681 @@
         <v>18</v>
       </c>
       <c r="M10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>54</v>
       </c>
-      <c r="N10" t="s">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.531481937248111</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1.88043682129197</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.00184613754674076</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0456046691981066</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0399351232088683</v>
+      </c>
+      <c r="I11" t="n">
+        <v>723</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="n">
+        <v>31</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.768318585368476</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.60617555098769</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0000000031426061596087</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.000000266207368089901</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.000000225310645822889</v>
+      </c>
+      <c r="I12" t="n">
+        <v>435</v>
+      </c>
+      <c r="J12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="n">
+        <v>105</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.52427007633152</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.2845722372395</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.00000000359739686607974</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.000000266207368089901</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.000000225310645822889</v>
+      </c>
+      <c r="I13" t="n">
+        <v>477</v>
+      </c>
+      <c r="J13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="n">
+        <v>174</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.389575216464678</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.81032335834479</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.00000146185782130932</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0000721183191845932</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0000610389756967752</v>
+      </c>
+      <c r="I14" t="n">
+        <v>368</v>
+      </c>
+      <c r="J14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.667834566242815</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.28422064621252</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.00000410489904861338</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.000121505011838956</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.000102838523533682</v>
+      </c>
+      <c r="I15" t="n">
+        <v>300</v>
+      </c>
+      <c r="J15" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="n">
+        <v>134</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.402810270217522</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.85261442295633</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.00000342107413659544</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.000121505011838956</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.000102838523533682</v>
+      </c>
+      <c r="I16" t="n">
+        <v>315</v>
+      </c>
+      <c r="J16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" t="s">
+        <v>62</v>
+      </c>
+      <c r="N16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.606540213077589</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.0808369586594</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.000042800256206157</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.00105573965308521</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.000893549208514506</v>
+      </c>
+      <c r="I17" t="n">
+        <v>465</v>
+      </c>
+      <c r="J17" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="n">
+        <v>28</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.644402782805286</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.13510599654374</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0000790575954779547</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.00157434305311284</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0013324809624497</v>
+      </c>
+      <c r="I18" t="n">
+        <v>273</v>
+      </c>
+      <c r="J18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="n">
+        <v>105</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.46023109513167</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1.80299395057514</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0000850996244925861</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.00157434305311284</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0013324809624497</v>
+      </c>
+      <c r="I19" t="n">
+        <v>266</v>
+      </c>
+      <c r="J19" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" t="s">
+        <v>62</v>
+      </c>
+      <c r="N19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.832058877227757</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.02469452634434</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.000123744087232899</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0020349027678299</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.00172228612639941</v>
+      </c>
+      <c r="I20" t="n">
+        <v>246</v>
+      </c>
+      <c r="J20" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" t="s">
+        <v>94</v>
+      </c>
+      <c r="L20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" t="s">
+        <v>62</v>
+      </c>
+      <c r="N20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.69322703864434</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.08901592998719</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0001393561370583</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.00206247082846284</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.00174561897999345</v>
+      </c>
+      <c r="I21" t="n">
+        <v>381</v>
+      </c>
+      <c r="J21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" t="s">
+        <v>62</v>
+      </c>
+      <c r="N21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>19</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.703873323093896</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.10983300846206</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.000258794052734759</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.00319179331706203</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.00270144669082775</v>
+      </c>
+      <c r="I22" t="n">
+        <v>294</v>
+      </c>
+      <c r="J22" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" t="s">
+        <v>102</v>
+      </c>
+      <c r="L22" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" t="s">
+        <v>62</v>
+      </c>
+      <c r="N22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" t="n">
+        <v>44</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.522863129352395</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.86042112582822</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.000256353253674219</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.00319179331706203</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.00270144669082775</v>
+      </c>
+      <c r="I23" t="n">
+        <v>289</v>
+      </c>
+      <c r="J23" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" t="s">
+        <v>106</v>
+      </c>
+      <c r="L23" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" t="s">
+        <v>62</v>
+      </c>
+      <c r="N23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.793043810498745</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.92975702346668</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.000667927331972188</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.00760409577937568</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.00643589898823404</v>
+      </c>
+      <c r="I24" t="n">
+        <v>287</v>
+      </c>
+      <c r="J24" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" t="s">
+        <v>110</v>
+      </c>
+      <c r="L24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" t="s">
+        <v>62</v>
+      </c>
+      <c r="N24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" t="n">
+        <v>16</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.704243298461017</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.05159486917003</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.00098378363517183</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0103999984289593</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0088022746304848</v>
+      </c>
+      <c r="I25" t="n">
+        <v>247</v>
+      </c>
+      <c r="J25" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" t="s">
+        <v>62</v>
+      </c>
+      <c r="N25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" t="n">
+        <v>68</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.468713415709131</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-1.7634871279904</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.00127668111453977</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0125965869967924</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0106614072021216</v>
+      </c>
+      <c r="I26" t="n">
+        <v>475</v>
+      </c>
+      <c r="J26" t="s">
+        <v>117</v>
+      </c>
+      <c r="K26" t="s">
+        <v>118</v>
+      </c>
+      <c r="L26" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" t="s">
+        <v>62</v>
+      </c>
+      <c r="N26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" t="n">
+        <v>18</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.633606233772977</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.85215507464274</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.00166258682141267</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0153789280980672</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0130163047202702</v>
+      </c>
+      <c r="I27" t="n">
+        <v>539</v>
+      </c>
+      <c r="J27" t="s">
+        <v>121</v>
+      </c>
+      <c r="K27" t="s">
+        <v>122</v>
+      </c>
+      <c r="L27" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" t="s">
+        <v>62</v>
+      </c>
+      <c r="N27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" t="n">
+        <v>12</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.72495095882313</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1.78592876728508</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.00271621005697017</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0236470052018579</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0200141793671486</v>
+      </c>
+      <c r="I28" t="n">
+        <v>69</v>
+      </c>
+      <c r="J28" t="s">
+        <v>125</v>
+      </c>
+      <c r="K28" t="s">
+        <v>126</v>
+      </c>
+      <c r="L28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" t="s">
+        <v>62</v>
+      </c>
+      <c r="N28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" t="n">
+        <v>33</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.552399132241686</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-1.69406617992068</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.00376430224492725</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0309509295694019</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0261960214705464</v>
+      </c>
+      <c r="I29" t="n">
+        <v>411</v>
+      </c>
+      <c r="J29" t="s">
+        <v>129</v>
+      </c>
+      <c r="K29" t="s">
+        <v>130</v>
+      </c>
+      <c r="L29" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" t="s">
+        <v>62</v>
+      </c>
+      <c r="N29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" t="n">
+        <v>21</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.580483007545784</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.75080006598381</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.00432934240025646</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0337232986967345</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0285424789823002</v>
+      </c>
+      <c r="I30" t="n">
+        <v>418</v>
+      </c>
+      <c r="J30" t="s">
+        <v>133</v>
+      </c>
+      <c r="K30" t="s">
+        <v>134</v>
+      </c>
+      <c r="L30" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" t="s">
+        <v>62</v>
+      </c>
+      <c r="N30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" t="n">
+        <v>24</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.587451531799831</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1.68146845063199</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.00471550721643371</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0348947534016094</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0295339662502953</v>
+      </c>
+      <c r="I31" t="n">
+        <v>317</v>
+      </c>
+      <c r="J31" t="s">
+        <v>137</v>
+      </c>
+      <c r="K31" t="s">
+        <v>138</v>
+      </c>
+      <c r="L31" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" t="s">
+        <v>62</v>
+      </c>
+      <c r="N31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" t="n">
+        <v>39</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.469847503159644</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.5815645546999</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.00522506841410262</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0368242916803423</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0311670747507876</v>
+      </c>
+      <c r="I32" t="n">
+        <v>372</v>
+      </c>
+      <c r="J32" t="s">
+        <v>141</v>
+      </c>
+      <c r="K32" t="s">
+        <v>142</v>
+      </c>
+      <c r="L32" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" t="s">
+        <v>62</v>
+      </c>
+      <c r="N32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.49697210043562</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.70172529528072</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.00653946367012426</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0439927555990177</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0372342668298941</v>
+      </c>
+      <c r="I33" t="n">
+        <v>507</v>
+      </c>
+      <c r="J33" t="s">
+        <v>145</v>
+      </c>
+      <c r="K33" t="s">
+        <v>146</v>
+      </c>
+      <c r="L33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" t="s">
+        <v>62</v>
+      </c>
+      <c r="N33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" t="n">
+        <v>282</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.401330013552844</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-1.74891474346284</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.00000195683962799886</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.000303310142339823</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.000261598560795637</v>
+      </c>
+      <c r="I34" t="n">
+        <v>490</v>
+      </c>
+      <c r="J34" t="s">
+        <v>149</v>
+      </c>
+      <c r="K34" t="s">
+        <v>150</v>
+      </c>
+      <c r="L34" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" t="s">
+        <v>151</v>
+      </c>
+      <c r="N34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" t="n">
+        <v>61</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.548015118396065</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-1.93572065334049</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0000229425393365813</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.00118536453239003</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.00102235175289327</v>
+      </c>
+      <c r="I35" t="n">
+        <v>490</v>
+      </c>
+      <c r="J35" t="s">
+        <v>154</v>
+      </c>
+      <c r="K35" t="s">
+        <v>155</v>
+      </c>
+      <c r="L35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" t="s">
+        <v>151</v>
+      </c>
+      <c r="N35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" t="n">
+        <v>307</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.380659416751985</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-1.67014403529353</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0000168917597313291</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.00118536453239003</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.00102235175289327</v>
+      </c>
+      <c r="I36" t="n">
+        <v>396</v>
+      </c>
+      <c r="J36" t="s">
+        <v>158</v>
+      </c>
+      <c r="K36" t="s">
+        <v>159</v>
+      </c>
+      <c r="L36" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" t="s">
+        <v>151</v>
+      </c>
+      <c r="N36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" t="n">
+        <v>70</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.518888342918186</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-1.85479073603711</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.00012147443305908</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.00470713428103935</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.00405980342065873</v>
+      </c>
+      <c r="I37" t="n">
+        <v>286</v>
+      </c>
+      <c r="J37" t="s">
+        <v>162</v>
+      </c>
+      <c r="K37" t="s">
+        <v>163</v>
+      </c>
+      <c r="L37" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" t="s">
+        <v>151</v>
+      </c>
+      <c r="N37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" t="n">
+        <v>14</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.748137357060844</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.16157246125911</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.000265347089770775</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.00685479981907836</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.00591211936857692</v>
+      </c>
+      <c r="I38" t="n">
+        <v>435</v>
+      </c>
+      <c r="J38" t="s">
+        <v>166</v>
+      </c>
+      <c r="K38" t="s">
+        <v>167</v>
+      </c>
+      <c r="L38" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" t="s">
+        <v>151</v>
+      </c>
+      <c r="N38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" t="n">
+        <v>11</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.792677589566345</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.08909765533091</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.000226444796142914</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.00685479981907836</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.00591211936857692</v>
+      </c>
+      <c r="I39" t="n">
+        <v>228</v>
+      </c>
+      <c r="J39" t="s">
+        <v>170</v>
+      </c>
+      <c r="K39" t="s">
+        <v>171</v>
+      </c>
+      <c r="L39" t="s">
+        <v>18</v>
+      </c>
+      <c r="M39" t="s">
+        <v>151</v>
+      </c>
+      <c r="N39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" t="n">
+        <v>46</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.553632573894576</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-1.81539495704254</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.000491631631291823</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.00762029028502326</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.00657233864990122</v>
+      </c>
+      <c r="I40" t="n">
+        <v>381</v>
+      </c>
+      <c r="J40" t="s">
+        <v>174</v>
+      </c>
+      <c r="K40" t="s">
+        <v>175</v>
+      </c>
+      <c r="L40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" t="s">
+        <v>151</v>
+      </c>
+      <c r="N40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" t="n">
+        <v>64</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.45509204218094</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.78695700661855</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.000440642053764129</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.00762029028502326</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.00657233864990122</v>
+      </c>
+      <c r="I41" t="n">
+        <v>650</v>
+      </c>
+      <c r="J41" t="s">
+        <v>178</v>
+      </c>
+      <c r="K41" t="s">
+        <v>179</v>
+      </c>
+      <c r="L41" t="s">
+        <v>18</v>
+      </c>
+      <c r="M41" t="s">
+        <v>151</v>
+      </c>
+      <c r="N41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" t="n">
+        <v>93</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.394158956097581</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.72229391731167</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.000454622051134218</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.00762029028502326</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.00657233864990122</v>
+      </c>
+      <c r="I42" t="n">
+        <v>465</v>
+      </c>
+      <c r="J42" t="s">
+        <v>182</v>
+      </c>
+      <c r="K42" t="s">
+        <v>183</v>
+      </c>
+      <c r="L42" t="s">
+        <v>18</v>
+      </c>
+      <c r="M42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" t="n">
+        <v>180</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.394295921554223</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-1.63647200982685</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.000349672455700279</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.00762029028502326</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.00657233864990122</v>
+      </c>
+      <c r="I43" t="n">
+        <v>288</v>
+      </c>
+      <c r="J43" t="s">
+        <v>186</v>
+      </c>
+      <c r="K43" t="s">
+        <v>187</v>
+      </c>
+      <c r="L43" t="s">
+        <v>18</v>
+      </c>
+      <c r="M43" t="s">
+        <v>151</v>
+      </c>
+      <c r="N43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.757638665518192</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.97714960984486</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.00110572017572788</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0155806024761656</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.0134379389777456</v>
+      </c>
+      <c r="I44" t="n">
+        <v>50</v>
+      </c>
+      <c r="J44" t="s">
+        <v>190</v>
+      </c>
+      <c r="K44" t="s">
+        <v>191</v>
+      </c>
+      <c r="L44" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" t="s">
+        <v>151</v>
+      </c>
+      <c r="N44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" t="n">
+        <v>17</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.660224063768606</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.02983019842296</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.00166258682141267</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0214750797765803</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0185218005543341</v>
+      </c>
+      <c r="I45" t="n">
+        <v>313</v>
+      </c>
+      <c r="J45" t="s">
+        <v>194</v>
+      </c>
+      <c r="K45" t="s">
+        <v>195</v>
+      </c>
+      <c r="L45" t="s">
+        <v>18</v>
+      </c>
+      <c r="M45" t="s">
+        <v>151</v>
+      </c>
+      <c r="N45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>196</v>
+      </c>
+      <c r="B46" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.722160923617971</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.88456615714024</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.00274350722126491</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0326453352804403</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.0281559088666616</v>
+      </c>
+      <c r="I46" t="n">
+        <v>442</v>
+      </c>
+      <c r="J46" t="s">
+        <v>198</v>
+      </c>
+      <c r="K46" t="s">
+        <v>199</v>
+      </c>
+      <c r="L46" t="s">
+        <v>18</v>
+      </c>
+      <c r="M46" t="s">
+        <v>151</v>
+      </c>
+      <c r="N46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>200</v>
+      </c>
+      <c r="B47" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" t="n">
+        <v>35</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.55584009437388</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-1.72115570974223</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0029486109285559</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0326453352804403</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0281559088666616</v>
+      </c>
+      <c r="I47" t="n">
+        <v>412</v>
+      </c>
+      <c r="J47" t="s">
+        <v>202</v>
+      </c>
+      <c r="K47" t="s">
+        <v>203</v>
+      </c>
+      <c r="L47" t="s">
+        <v>18</v>
+      </c>
+      <c r="M47" t="s">
+        <v>151</v>
+      </c>
+      <c r="N47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>204</v>
+      </c>
+      <c r="B48" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" t="n">
+        <v>117</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.332592415850579</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.46388857766162</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.00451036200053742</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0466070740055534</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.040197612215316</v>
+      </c>
+      <c r="I48" t="n">
+        <v>324</v>
+      </c>
+      <c r="J48" t="s">
+        <v>206</v>
+      </c>
+      <c r="K48" t="s">
+        <v>207</v>
+      </c>
+      <c r="L48" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" t="s">
+        <v>151</v>
+      </c>
+      <c r="N48" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1490,40 +3822,40 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>209</v>
       </c>
       <c r="C2" t="n">
         <v>115</v>
       </c>
       <c r="D2" t="n">
-        <v>0.543467387916994</v>
+        <v>0.461467408970408</v>
       </c>
       <c r="E2" t="n">
-        <v>2.07884368039648</v>
+        <v>1.89934971572489</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0000000152844179242493</v>
+        <v>0.0000199216971083544</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00000354598495842583</v>
+        <v>0.00462183372913823</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00000349128283111799</v>
+        <v>0.00444568398628541</v>
       </c>
       <c r="I2" t="n">
-        <v>443</v>
+        <v>595</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>210</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>211</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>212</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
@@ -1534,43 +3866,43 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="C3" t="n">
         <v>62</v>
       </c>
       <c r="D3" t="n">
-        <v>0.700748893516358</v>
+        <v>0.684072081948171</v>
       </c>
       <c r="E3" t="n">
-        <v>2.50654024450323</v>
+        <v>2.58584227728951</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00000000000334443350456384</v>
+        <v>0.0000000000992564631468975</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000000000498320592180011</v>
+        <v>0.0000000147892130088877</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000000000436536583753595</v>
+        <v>0.0000000131645414279043</v>
       </c>
       <c r="I3" t="n">
-        <v>438</v>
+        <v>530</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>212</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="N3" t="s">
         <v>20</v>
@@ -1578,43 +3910,43 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.843047743610514</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.98008805913869</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000178022433692254</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0132626713100729</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0118056982343284</v>
+      </c>
+      <c r="I4" t="n">
+        <v>261</v>
+      </c>
+      <c r="J4" t="s">
+        <v>217</v>
+      </c>
+      <c r="K4" t="s">
+        <v>218</v>
+      </c>
+      <c r="L4" t="s">
+        <v>212</v>
+      </c>
+      <c r="M4" t="s">
         <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.694500792272932</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.13065791608969</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0000449810457029743</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.00335108790487158</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.00293560508798358</v>
-      </c>
-      <c r="I4" t="n">
-        <v>403</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
       </c>
       <c r="N4" t="s">
         <v>20</v>
@@ -1622,43 +3954,43 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="C5" t="n">
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.810271370866451</v>
+        <v>0.822442826473014</v>
       </c>
       <c r="E5" t="n">
-        <v>1.98406256967119</v>
+        <v>1.93169275686462</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000805435561080091</v>
+        <v>0.000505455432001838</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0150012373251167</v>
+        <v>0.0251042864560913</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0131413170492015</v>
+        <v>0.022346450677976</v>
       </c>
       <c r="I5" t="n">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>221</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>212</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="N5" t="s">
         <v>20</v>
@@ -1666,43 +3998,43 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D6" t="n">
-        <v>0.798383862698249</v>
+        <v>0.697764947973206</v>
       </c>
       <c r="E6" t="n">
-        <v>1.97330501060777</v>
+        <v>2.54144885120676</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000707742797958052</v>
+        <v>0.000000000004970112595742</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0150012373251167</v>
+        <v>0.00000000077036745234001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0131413170492015</v>
+        <v>0.000000000742901040626699</v>
       </c>
       <c r="I6" t="n">
-        <v>246</v>
+        <v>530</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>225</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>212</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="N6" t="s">
         <v>20</v>
@@ -1710,530 +4042,46 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="D7" t="n">
-        <v>0.657386675391465</v>
+        <v>-0.492253095531037</v>
       </c>
       <c r="E7" t="n">
-        <v>1.84133101917856</v>
+        <v>-2.00346957413104</v>
       </c>
       <c r="F7" t="n">
-        <v>0.000790791769503995</v>
+        <v>0.00000543589676825786</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0150012373251167</v>
+        <v>0.000421281999539984</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0131413170492015</v>
+        <v>0.000406261758469798</v>
       </c>
       <c r="I7" t="n">
-        <v>602</v>
+        <v>514</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="K7" t="s">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>212</v>
       </c>
       <c r="M7" t="s">
+        <v>151</v>
+      </c>
+      <c r="N7" t="s">
         <v>25</v>
-      </c>
-      <c r="N7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="n">
-        <v>31</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.600402399427194</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.80060560945111</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.000728098970137583</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0150012373251167</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0131413170492015</v>
-      </c>
-      <c r="I8" t="n">
-        <v>754</v>
-      </c>
-      <c r="J8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.437268835388914</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.72145540632062</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.000519525169459815</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0150012373251167</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0131413170492015</v>
-      </c>
-      <c r="I9" t="n">
-        <v>408</v>
-      </c>
-      <c r="J9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" t="n">
-        <v>134</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.396213562057177</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-1.71875382516161</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.000499876945528563</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0150012373251167</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0131413170492015</v>
-      </c>
-      <c r="I10" t="n">
-        <v>474</v>
-      </c>
-      <c r="J10" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" t="s">
-        <v>85</v>
-      </c>
-      <c r="L10" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.782681567798994</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.91650508518028</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0020675961588608</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0341505342628448</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.0299163987890692</v>
-      </c>
-      <c r="I11" t="n">
-        <v>387</v>
-      </c>
-      <c r="J11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" t="s">
-        <v>88</v>
-      </c>
-      <c r="L11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="n">
-        <v>23</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.620087910923781</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.85336223255269</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.00229198216529159</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.0341505342628448</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.0299163987890692</v>
-      </c>
-      <c r="I12" t="n">
-        <v>438</v>
-      </c>
-      <c r="J12" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" t="s">
-        <v>90</v>
-      </c>
-      <c r="L12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" t="n">
-        <v>19</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.638304855036109</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-1.82166730545555</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.00343387399396386</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.0465133841000559</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.0407464473924898</v>
-      </c>
-      <c r="I13" t="n">
-        <v>495</v>
-      </c>
-      <c r="J13" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L13" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" t="n">
-        <v>19</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.626336035554919</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-1.78750932128582</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.00453758703641275</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.0489239338255197</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.0428581264172691</v>
-      </c>
-      <c r="I14" t="n">
-        <v>683</v>
-      </c>
-      <c r="J14" t="s">
-        <v>97</v>
-      </c>
-      <c r="K14" t="s">
-        <v>98</v>
-      </c>
-      <c r="L14" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" t="n">
-        <v>52</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.488697161497703</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.69031165849027</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.00424640029833364</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.0489239338255197</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.0428581264172691</v>
-      </c>
-      <c r="I15" t="n">
-        <v>542</v>
-      </c>
-      <c r="J15" t="s">
-        <v>101</v>
-      </c>
-      <c r="K15" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" t="s">
-        <v>59</v>
-      </c>
-      <c r="M15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="n">
-        <v>105</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.387416196009453</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.53987333965499</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.00459687968830387</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.0489239338255197</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.0428581264172691</v>
-      </c>
-      <c r="I16" t="n">
-        <v>561</v>
-      </c>
-      <c r="J16" t="s">
-        <v>103</v>
-      </c>
-      <c r="K16" t="s">
-        <v>104</v>
-      </c>
-      <c r="L16" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="n">
-        <v>64</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.694735008534773</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2.46503021541391</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0000000000161335286725582</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.00000000250069694424652</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.00000000239455530824285</v>
-      </c>
-      <c r="I17" t="n">
-        <v>408</v>
-      </c>
-      <c r="J17" t="s">
-        <v>105</v>
-      </c>
-      <c r="K17" t="s">
-        <v>106</v>
-      </c>
-      <c r="L17" t="s">
-        <v>59</v>
-      </c>
-      <c r="M17" t="s">
-        <v>54</v>
-      </c>
-      <c r="N17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" t="n">
-        <v>96</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-0.516138011154968</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-2.20966648244188</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.00000049418054526818</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.000038298992258284</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.0000366733983593755</v>
-      </c>
-      <c r="I18" t="n">
-        <v>495</v>
-      </c>
-      <c r="J18" t="s">
-        <v>109</v>
-      </c>
-      <c r="K18" t="s">
-        <v>110</v>
-      </c>
-      <c r="L18" t="s">
-        <v>59</v>
-      </c>
-      <c r="M18" t="s">
-        <v>54</v>
-      </c>
-      <c r="N18" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2299,40 +4147,40 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>0.529549467428761</v>
+        <v>0.716413654772433</v>
       </c>
       <c r="E2" t="n">
-        <v>2.13000222303329</v>
+        <v>2.53038223622942</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00000000655556695129936</v>
+        <v>0.000000252247158047878</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00000152089153270145</v>
+        <v>0.0000585213406671077</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00000149052890682175</v>
+        <v>0.0000515115249066193</v>
       </c>
       <c r="I2" t="n">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>230</v>
       </c>
       <c r="K2" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="L2" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
@@ -2343,40 +4191,40 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>0.664699624194176</v>
+        <v>0.716579959248369</v>
       </c>
       <c r="E3" t="n">
-        <v>2.17236184639636</v>
+        <v>2.16676754800611</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00000872748331238418</v>
+        <v>0.0000638123135872745</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00101238806423656</v>
+        <v>0.00740222837612385</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000992177050249991</v>
+        <v>0.00651557307154277</v>
       </c>
       <c r="I3" t="n">
-        <v>590</v>
+        <v>498</v>
       </c>
       <c r="J3" t="s">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c r="K3" t="s">
-        <v>115</v>
+        <v>234</v>
       </c>
       <c r="L3" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="M3" t="s">
         <v>19</v>
@@ -2387,43 +4235,43 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>235</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
-        <v>0.70609558961102</v>
+        <v>0.534573497750875</v>
       </c>
       <c r="E4" t="n">
-        <v>2.64516897970475</v>
+        <v>2.04441669897017</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000000000000709990657952718</v>
+        <v>0.000157410832599033</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000000000105788608034955</v>
+        <v>0.0121731043876586</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0000000000934198234148313</v>
+        <v>0.0107149829909517</v>
       </c>
       <c r="I4" t="n">
-        <v>458</v>
+        <v>289</v>
       </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>237</v>
       </c>
       <c r="K4" t="s">
-        <v>117</v>
+        <v>238</v>
       </c>
       <c r="L4" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N4" t="s">
         <v>20</v>
@@ -2437,169 +4285,169 @@
         <v>31</v>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n">
-        <v>0.761731287453446</v>
+        <v>-0.518188818958185</v>
       </c>
       <c r="E5" t="n">
-        <v>2.29312184560417</v>
+        <v>-1.84284538401137</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00000213259913829087</v>
+        <v>0.00045659914657484</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00015887863580267</v>
+        <v>0.0211862004010726</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000140302574887557</v>
+        <v>0.0186484704074777</v>
       </c>
       <c r="I5" t="n">
-        <v>507</v>
+        <v>319</v>
       </c>
       <c r="J5" t="s">
-        <v>118</v>
+        <v>239</v>
       </c>
       <c r="K5" t="s">
-        <v>119</v>
+        <v>240</v>
       </c>
       <c r="L5" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
         <v>25</v>
-      </c>
-      <c r="N5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D6" t="n">
-        <v>0.684520478807785</v>
+        <v>-0.531422303537193</v>
       </c>
       <c r="E6" t="n">
-        <v>2.2379568346053</v>
+        <v>-1.82831239526101</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00000406315329602549</v>
+        <v>0.000412000898612994</v>
       </c>
       <c r="G6" t="n">
-        <v>0.000201803280369266</v>
+        <v>0.0211862004010726</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000178208477895855</v>
+        <v>0.0186484704074777</v>
       </c>
       <c r="I6" t="n">
-        <v>590</v>
+        <v>774</v>
       </c>
       <c r="J6" t="s">
-        <v>120</v>
+        <v>241</v>
       </c>
       <c r="K6" t="s">
-        <v>121</v>
+        <v>242</v>
       </c>
       <c r="L6" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
         <v>25</v>
-      </c>
-      <c r="N6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D7" t="n">
-        <v>0.480483584244425</v>
+        <v>-0.463920964096878</v>
       </c>
       <c r="E7" t="n">
-        <v>1.88553941842787</v>
+        <v>-1.7524389591971</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00000660782148934653</v>
+        <v>0.000723778744692378</v>
       </c>
       <c r="G7" t="n">
-        <v>0.000246141350478158</v>
+        <v>0.0279861114614386</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000217362548991662</v>
+        <v>0.0246338730649687</v>
       </c>
       <c r="I7" t="n">
-        <v>510</v>
+        <v>421</v>
       </c>
       <c r="J7" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="K7" t="s">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="L7" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" t="s">
         <v>25</v>
-      </c>
-      <c r="N7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C8" t="n">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>0.45068443341795</v>
+        <v>0.781554693443066</v>
       </c>
       <c r="E8" t="n">
-        <v>1.83872320353149</v>
+        <v>2.70048858347333</v>
       </c>
       <c r="F8" t="n">
-        <v>0.000072630942771609</v>
+        <v>0.000000000393119082547728</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00216440209459395</v>
+        <v>0.0000000585747432996115</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00191134059925287</v>
+        <v>0.0000000451052421028446</v>
       </c>
       <c r="I8" t="n">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="J8" t="s">
-        <v>124</v>
+        <v>245</v>
       </c>
       <c r="K8" t="s">
-        <v>125</v>
+        <v>246</v>
       </c>
       <c r="L8" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="M8" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="N8" t="s">
         <v>20</v>
@@ -2607,43 +4455,43 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="D9" t="n">
-        <v>0.680371184563902</v>
+        <v>0.523050452121057</v>
       </c>
       <c r="E9" t="n">
-        <v>2.05610797422031</v>
+        <v>2.23149114954962</v>
       </c>
       <c r="F9" t="n">
-        <v>0.000101166890633329</v>
+        <v>0.00000000840745576427029</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00228604121133173</v>
+        <v>0.000000626355454438136</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00201875769280443</v>
+        <v>0.000000482322462266032</v>
       </c>
       <c r="I9" t="n">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="J9" t="s">
-        <v>126</v>
+        <v>247</v>
       </c>
       <c r="K9" t="s">
-        <v>127</v>
+        <v>248</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="M9" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="N9" t="s">
         <v>20</v>
@@ -2651,43 +4499,43 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="C10" t="n">
         <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>0.81332536458818</v>
+        <v>0.886424306452811</v>
       </c>
       <c r="E10" t="n">
-        <v>1.92863967762449</v>
+        <v>2.38692325068165</v>
       </c>
       <c r="F10" t="n">
-        <v>0.000107397909257195</v>
+        <v>0.00000591379149181363</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00228604121133173</v>
+        <v>0.000176230986456046</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00201875769280443</v>
+        <v>0.000135705952127934</v>
       </c>
       <c r="I10" t="n">
-        <v>431</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>128</v>
+        <v>249</v>
       </c>
       <c r="K10" t="s">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="M10" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="N10" t="s">
         <v>20</v>
@@ -2695,43 +4543,43 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D11" t="n">
-        <v>0.806659383381479</v>
+        <v>0.646709291364289</v>
       </c>
       <c r="E11" t="n">
-        <v>1.91283262622132</v>
+        <v>2.27462331973469</v>
       </c>
       <c r="F11" t="n">
-        <v>0.000146620637193709</v>
+        <v>0.0000040413593276525</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00273080936773284</v>
+        <v>0.000176230986456046</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00241152363805443</v>
+        <v>0.000135705952127934</v>
       </c>
       <c r="I11" t="n">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="M11" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="N11" t="s">
         <v>20</v>
@@ -2739,43 +4587,43 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>214</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D12" t="n">
-        <v>0.798007486749653</v>
+        <v>0.539082802929836</v>
       </c>
       <c r="E12" t="n">
-        <v>1.89231637054141</v>
+        <v>2.07318798530738</v>
       </c>
       <c r="F12" t="n">
-        <v>0.000200840798148258</v>
+        <v>0.00000564500550605767</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0033250309915656</v>
+        <v>0.000176230986456046</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0029362689787757</v>
+        <v>0.000135705952127934</v>
       </c>
       <c r="I12" t="n">
-        <v>308</v>
+        <v>572</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="M12" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="N12" t="s">
         <v>20</v>
@@ -2783,43 +4631,43 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="n">
+        <v>44</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.568336713164442</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.03857407311777</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0000397091143293557</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.000986109672512333</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.000759349730157855</v>
+      </c>
+      <c r="I13" t="n">
+        <v>283</v>
+      </c>
+      <c r="J13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K13" t="s">
+        <v>256</v>
+      </c>
+      <c r="L13" t="s">
+        <v>232</v>
+      </c>
+      <c r="M13" t="s">
         <v>62</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" t="n">
-        <v>26</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.599665758484721</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.91539564494135</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.00144152689994015</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.0205538285254625</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.0181506786696066</v>
-      </c>
-      <c r="I13" t="n">
-        <v>458</v>
-      </c>
-      <c r="J13" t="s">
-        <v>133</v>
-      </c>
-      <c r="K13" t="s">
-        <v>134</v>
-      </c>
-      <c r="L13" t="s">
-        <v>113</v>
-      </c>
-      <c r="M13" t="s">
-        <v>25</v>
       </c>
       <c r="N13" t="s">
         <v>20</v>
@@ -2827,43 +4675,43 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C14" t="n">
-        <v>448</v>
+        <v>16</v>
       </c>
       <c r="D14" t="n">
-        <v>0.286596831202363</v>
+        <v>0.747395317877481</v>
       </c>
       <c r="E14" t="n">
-        <v>1.40490511341495</v>
+        <v>2.23554169737568</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00151739673677911</v>
+        <v>0.0000495385755209224</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0205538285254625</v>
+        <v>0.00105446396465963</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0181506786696066</v>
+        <v>0.000811985673951961</v>
       </c>
       <c r="I14" t="n">
-        <v>614</v>
+        <v>288</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>257</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="L14" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="M14" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="N14" t="s">
         <v>20</v>
@@ -2871,43 +4719,43 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" t="n">
-        <v>0.645892064119565</v>
+        <v>0.664839442428769</v>
       </c>
       <c r="E15" t="n">
-        <v>1.89885950484992</v>
+        <v>2.1372231559272</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00167664103993914</v>
+        <v>0.000250355893039248</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0208182929125777</v>
+        <v>0.00466287850785599</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0183842219291572</v>
+        <v>0.00359063057122079</v>
       </c>
       <c r="I15" t="n">
-        <v>438</v>
+        <v>572</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>259</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>260</v>
       </c>
       <c r="L15" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="M15" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="N15" t="s">
         <v>20</v>
@@ -2915,43 +4763,43 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>0.541216592271934</v>
+        <v>0.801007528887512</v>
       </c>
       <c r="E16" t="n">
-        <v>1.78383895936062</v>
+        <v>2.1569168182263</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00377020583027397</v>
+        <v>0.000477070756416562</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0432123591316016</v>
+        <v>0.0078981714117853</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0381599780392102</v>
+        <v>0.00608195467244506</v>
       </c>
       <c r="I16" t="n">
-        <v>494</v>
+        <v>301</v>
       </c>
       <c r="J16" t="s">
-        <v>145</v>
+        <v>261</v>
       </c>
       <c r="K16" t="s">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c r="L16" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="M16" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="N16" t="s">
         <v>20</v>
@@ -2959,46 +4807,1058 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C17" t="n">
+        <v>28</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.57378113344993</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.93384652043546</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.000862971073935003</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0128582690016315</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.00990145758514899</v>
+      </c>
+      <c r="I17" t="n">
+        <v>391</v>
+      </c>
+      <c r="J17" t="s">
+        <v>263</v>
+      </c>
+      <c r="K17" t="s">
+        <v>264</v>
+      </c>
+      <c r="L17" t="s">
+        <v>232</v>
+      </c>
+      <c r="M17" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="n">
+        <v>174</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.328076108478957</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.50796551552491</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.000980168065131996</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0132768219731516</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0102237625932428</v>
+      </c>
+      <c r="I18" t="n">
+        <v>468</v>
+      </c>
+      <c r="J18" t="s">
+        <v>265</v>
+      </c>
+      <c r="K18" t="s">
+        <v>266</v>
+      </c>
+      <c r="L18" t="s">
+        <v>232</v>
+      </c>
+      <c r="M18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.662755395299323</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.05078433771169</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.00132976116950922</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0165112011880728</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0127143831119741</v>
+      </c>
+      <c r="I19" t="n">
+        <v>294</v>
+      </c>
+      <c r="J19" t="s">
+        <v>267</v>
+      </c>
+      <c r="K19" t="s">
+        <v>268</v>
+      </c>
+      <c r="L19" t="s">
+        <v>232</v>
+      </c>
+      <c r="M19" t="s">
+        <v>62</v>
+      </c>
+      <c r="N19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="n">
+        <v>20</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.626131519360492</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.9865492896276</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.00159449162234161</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0182753270560692</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0140728410392903</v>
+      </c>
+      <c r="I20" t="n">
+        <v>410</v>
+      </c>
+      <c r="J20" t="s">
+        <v>269</v>
+      </c>
+      <c r="K20" t="s">
+        <v>270</v>
+      </c>
+      <c r="L20" t="s">
+        <v>232</v>
+      </c>
+      <c r="M20" t="s">
+        <v>62</v>
+      </c>
+      <c r="N20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="n">
+        <v>105</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.415045681410287</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1.60612911506327</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.00182102692584812</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0193809294250978</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0149242056328906</v>
+      </c>
+      <c r="I21" t="n">
+        <v>461</v>
+      </c>
+      <c r="J21" t="s">
+        <v>271</v>
+      </c>
+      <c r="K21" t="s">
+        <v>272</v>
+      </c>
+      <c r="L21" t="s">
+        <v>232</v>
+      </c>
+      <c r="M21" t="s">
+        <v>62</v>
+      </c>
+      <c r="N21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22" t="n">
+        <v>36</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.553472740906659</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-1.74213213819609</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.00201185322058366</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0199844086577976</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0153889123539381</v>
+      </c>
+      <c r="I22" t="n">
+        <v>596</v>
+      </c>
+      <c r="J22" t="s">
+        <v>275</v>
+      </c>
+      <c r="K22" t="s">
+        <v>276</v>
+      </c>
+      <c r="L22" t="s">
+        <v>232</v>
+      </c>
+      <c r="M22" t="s">
+        <v>62</v>
+      </c>
+      <c r="N22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>19</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.636120185375645</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.02049763693813</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.00216229034991023</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.020136328883539</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0155058979039615</v>
+      </c>
+      <c r="I23" t="n">
+        <v>381</v>
+      </c>
+      <c r="J23" t="s">
+        <v>277</v>
+      </c>
+      <c r="K23" t="s">
+        <v>278</v>
+      </c>
+      <c r="L23" t="s">
+        <v>232</v>
+      </c>
+      <c r="M23" t="s">
+        <v>62</v>
+      </c>
+      <c r="N23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" t="n">
+        <v>33</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.572705498163879</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-1.79253217549368</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.00343896767516656</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.030141540211754</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0232103700676876</v>
+      </c>
+      <c r="I24" t="n">
+        <v>627</v>
+      </c>
+      <c r="J24" t="s">
+        <v>279</v>
+      </c>
+      <c r="K24" t="s">
+        <v>280</v>
+      </c>
+      <c r="L24" t="s">
+        <v>232</v>
+      </c>
+      <c r="M24" t="s">
+        <v>62</v>
+      </c>
+      <c r="N24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="n">
+        <v>30</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.522934468823106</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.77065804355383</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.00560526442530066</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.042642626982459</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0328367809331546</v>
+      </c>
+      <c r="I25" t="n">
+        <v>240</v>
+      </c>
+      <c r="J25" t="s">
+        <v>281</v>
+      </c>
+      <c r="K25" t="s">
+        <v>282</v>
+      </c>
+      <c r="L25" t="s">
+        <v>232</v>
+      </c>
+      <c r="M25" t="s">
+        <v>62</v>
+      </c>
+      <c r="N25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>283</v>
+      </c>
+      <c r="B26" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" t="n">
+        <v>74</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.42784549643572</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-1.52672704940466</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.00572384254798107</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.042642626982459</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0328367809331546</v>
+      </c>
+      <c r="I26" t="n">
+        <v>462</v>
+      </c>
+      <c r="J26" t="s">
+        <v>285</v>
+      </c>
+      <c r="K26" t="s">
+        <v>286</v>
+      </c>
+      <c r="L26" t="s">
+        <v>232</v>
+      </c>
+      <c r="M26" t="s">
+        <v>62</v>
+      </c>
+      <c r="N26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>287</v>
+      </c>
+      <c r="B27" t="s">
+        <v>288</v>
+      </c>
+      <c r="C27" t="n">
+        <v>448</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.240205813003972</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.27118120964797</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.00571050367685363</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.042642626982459</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0328367809331546</v>
+      </c>
+      <c r="I27" t="n">
+        <v>498</v>
+      </c>
+      <c r="J27" t="s">
+        <v>289</v>
+      </c>
+      <c r="K27" t="s">
+        <v>290</v>
+      </c>
+      <c r="L27" t="s">
+        <v>232</v>
+      </c>
+      <c r="M27" t="s">
+        <v>62</v>
+      </c>
+      <c r="N27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" t="n">
         <v>64</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.723884856151948</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2.72519287021229</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0000000000000293350851025818</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.00000000000454693819090018</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.0000000000044465813208124</v>
-      </c>
-      <c r="I17" t="n">
-        <v>458</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="D28" t="n">
+        <v>0.56926333178247</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.38003517978971</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.000000734301185939309</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.000113816683820593</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0000973915257140557</v>
+      </c>
+      <c r="I28" t="n">
+        <v>572</v>
+      </c>
+      <c r="J28" t="s">
+        <v>291</v>
+      </c>
+      <c r="K28" t="s">
+        <v>292</v>
+      </c>
+      <c r="L28" t="s">
+        <v>232</v>
+      </c>
+      <c r="M28" t="s">
+        <v>151</v>
+      </c>
+      <c r="N28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" t="n">
+        <v>14</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.784313725490196</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.18805695107189</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0000592290837763769</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.00459025399266921</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.00392782345043341</v>
+      </c>
+      <c r="I29" t="n">
+        <v>498</v>
+      </c>
+      <c r="J29" t="s">
+        <v>293</v>
+      </c>
+      <c r="K29" t="s">
+        <v>294</v>
+      </c>
+      <c r="L29" t="s">
+        <v>232</v>
+      </c>
+      <c r="M29" t="s">
+        <v>151</v>
+      </c>
+      <c r="N29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" t="n">
+        <v>307</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.350932649264341</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1.566113488243</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0000906982839986772</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.00468607800659832</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.00400981887152047</v>
+      </c>
+      <c r="I30" t="n">
+        <v>569</v>
+      </c>
+      <c r="J30" t="s">
+        <v>295</v>
+      </c>
+      <c r="K30" t="s">
+        <v>296</v>
+      </c>
+      <c r="L30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M30" t="s">
+        <v>151</v>
+      </c>
+      <c r="N30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" t="n">
+        <v>64</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.480181220901942</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.00759145129289</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.000195536948374023</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.00614108923960274</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.00525485395035617</v>
+      </c>
+      <c r="I31" t="n">
+        <v>569</v>
+      </c>
+      <c r="J31" t="s">
+        <v>297</v>
+      </c>
+      <c r="K31" t="s">
+        <v>298</v>
+      </c>
+      <c r="L31" t="s">
+        <v>232</v>
+      </c>
+      <c r="M31" t="s">
+        <v>151</v>
+      </c>
+      <c r="N31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>299</v>
+      </c>
+      <c r="B32" t="s">
+        <v>300</v>
+      </c>
+      <c r="C32" t="n">
+        <v>88</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.474309797203544</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-1.84933663755839</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.000198099652890411</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.00614108923960274</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.00525485395035617</v>
+      </c>
+      <c r="I32" t="n">
+        <v>622</v>
+      </c>
+      <c r="J32" t="s">
+        <v>301</v>
+      </c>
+      <c r="K32" t="s">
+        <v>302</v>
+      </c>
+      <c r="L32" t="s">
+        <v>232</v>
+      </c>
+      <c r="M32" t="s">
+        <v>151</v>
+      </c>
+      <c r="N32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" t="n">
+        <v>61</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.500738060833112</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-1.78707834527351</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.000494204479907828</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0127669490642856</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.010924520082173</v>
+      </c>
+      <c r="I33" t="n">
+        <v>319</v>
+      </c>
+      <c r="J33" t="s">
+        <v>303</v>
+      </c>
+      <c r="K33" t="s">
+        <v>304</v>
+      </c>
+      <c r="L33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M33" t="s">
+        <v>151</v>
+      </c>
+      <c r="N33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" t="n">
+        <v>46</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.541975694575259</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-1.80695367125714</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.000638072922483542</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0141287575692784</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0120898027417934</v>
+      </c>
+      <c r="I34" t="n">
+        <v>305</v>
+      </c>
+      <c r="J34" t="s">
+        <v>305</v>
+      </c>
+      <c r="K34" t="s">
+        <v>306</v>
+      </c>
+      <c r="L34" t="s">
+        <v>232</v>
+      </c>
+      <c r="M34" t="s">
+        <v>151</v>
+      </c>
+      <c r="N34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" t="n">
+        <v>11</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.74788572992938</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.96772883268939</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.000975527873281031</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0175374228580605</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0150065553827886</v>
+      </c>
+      <c r="I35" t="n">
+        <v>441</v>
+      </c>
+      <c r="J35" t="s">
+        <v>307</v>
+      </c>
+      <c r="K35" t="s">
+        <v>308</v>
+      </c>
+      <c r="L35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M35" t="s">
+        <v>151</v>
+      </c>
+      <c r="N35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" t="n">
+        <v>93</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.390595877923928</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.6611566763673</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.00101830197240351</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0175374228580605</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0150065553827886</v>
+      </c>
+      <c r="I36" t="n">
+        <v>557</v>
+      </c>
+      <c r="J36" t="s">
+        <v>309</v>
+      </c>
+      <c r="K36" t="s">
+        <v>310</v>
+      </c>
+      <c r="L36" t="s">
+        <v>232</v>
+      </c>
+      <c r="M36" t="s">
+        <v>151</v>
+      </c>
+      <c r="N36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.547326378334741</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-1.72001868386159</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.00158035146363097</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02449544768628</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.020960450991316</v>
+      </c>
+      <c r="I37" t="n">
+        <v>196</v>
+      </c>
+      <c r="J37" t="s">
+        <v>311</v>
+      </c>
+      <c r="K37" t="s">
+        <v>312</v>
+      </c>
+      <c r="L37" t="s">
+        <v>232</v>
+      </c>
+      <c r="M37" t="s">
+        <v>151</v>
+      </c>
+      <c r="N37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
         <v>147</v>
       </c>
-      <c r="K17" t="s">
+      <c r="B38" t="s">
         <v>148</v>
       </c>
-      <c r="L17" t="s">
-        <v>113</v>
-      </c>
-      <c r="M17" t="s">
-        <v>54</v>
-      </c>
-      <c r="N17" t="s">
-        <v>20</v>
+      <c r="C38" t="n">
+        <v>282</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.327384717521316</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-1.45551727723478</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.00214055539007195</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0301623714055593</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0258095673826857</v>
+      </c>
+      <c r="I38" t="n">
+        <v>469</v>
+      </c>
+      <c r="J38" t="s">
+        <v>313</v>
+      </c>
+      <c r="K38" t="s">
+        <v>314</v>
+      </c>
+      <c r="L38" t="s">
+        <v>232</v>
+      </c>
+      <c r="M38" t="s">
+        <v>151</v>
+      </c>
+      <c r="N38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" t="n">
+        <v>17</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.656763616947666</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.85150675637106</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.00293960566410851</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0379699064947349</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0324903783927783</v>
+      </c>
+      <c r="I39" t="n">
+        <v>439</v>
+      </c>
+      <c r="J39" t="s">
+        <v>315</v>
+      </c>
+      <c r="K39" t="s">
+        <v>316</v>
+      </c>
+      <c r="L39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M39" t="s">
+        <v>151</v>
+      </c>
+      <c r="N39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>317</v>
+      </c>
+      <c r="B40" t="s">
+        <v>318</v>
+      </c>
+      <c r="C40" t="n">
+        <v>22</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.607664435525596</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-1.64269098603032</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0037669680065863</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0449138493092981</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0384322241967509</v>
+      </c>
+      <c r="I40" t="n">
+        <v>766</v>
+      </c>
+      <c r="J40" t="s">
+        <v>319</v>
+      </c>
+      <c r="K40" t="s">
+        <v>320</v>
+      </c>
+      <c r="L40" t="s">
+        <v>232</v>
+      </c>
+      <c r="M40" t="s">
+        <v>151</v>
+      </c>
+      <c r="N40" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3064,46 +5924,134 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>321</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>322</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>0.781508372019456</v>
+        <v>-0.730308266240418</v>
       </c>
       <c r="E2" t="n">
-        <v>1.96658046369834</v>
+        <v>-2.15879001555343</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0000836136822349802</v>
+        <v>0.000166053836620206</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0193983742785154</v>
+        <v>0.0385244900958878</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0181309668846378</v>
+        <v>0.036881431080909</v>
       </c>
       <c r="I2" t="n">
-        <v>230</v>
+        <v>411</v>
       </c>
       <c r="J2" t="s">
-        <v>151</v>
+        <v>323</v>
       </c>
       <c r="K2" t="s">
-        <v>152</v>
+        <v>324</v>
       </c>
       <c r="L2" t="s">
-        <v>153</v>
+        <v>325</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.771882832414658</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.98300676167138</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.00041982255096394</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.048699415911817</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0466223990807323</v>
+      </c>
+      <c r="I3" t="n">
+        <v>411</v>
+      </c>
+      <c r="J3" t="s">
+        <v>328</v>
+      </c>
+      <c r="K3" t="s">
+        <v>329</v>
+      </c>
+      <c r="L3" t="s">
+        <v>325</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="n">
+        <v>174</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.398843106151536</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1.7856386140847</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0000376549249254063</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00561058381388554</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.00511314243723939</v>
+      </c>
+      <c r="I4" t="n">
+        <v>419</v>
+      </c>
+      <c r="J4" t="s">
+        <v>330</v>
+      </c>
+      <c r="K4" t="s">
+        <v>331</v>
+      </c>
+      <c r="L4" t="s">
+        <v>325</v>
+      </c>
+      <c r="M4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3169,87 +6117,87 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.545337249983194</v>
+        <v>0.638502616527904</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.8272946746911</v>
+        <v>1.92870948952529</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0000994806685241381</v>
+        <v>0.00000106390223228634</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0148226196100966</v>
+        <v>0.00024682531789043</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0137178606070127</v>
+        <v>0.000219499828976971</v>
       </c>
       <c r="I2" t="n">
-        <v>650</v>
+        <v>461</v>
       </c>
       <c r="J2" t="s">
-        <v>154</v>
+        <v>332</v>
       </c>
       <c r="K2" t="s">
-        <v>155</v>
+        <v>333</v>
       </c>
       <c r="L2" t="s">
-        <v>156</v>
+        <v>334</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D3" t="n">
-        <v>0.747915770059584</v>
+        <v>0.642783031372128</v>
       </c>
       <c r="E3" t="n">
-        <v>2.03537706833816</v>
+        <v>1.89434215656454</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000699768595598934</v>
+        <v>0.00000358517027686512</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0389314340905386</v>
+        <v>0.000415879752116354</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0360297977100711</v>
+        <v>0.000369838618034507</v>
       </c>
       <c r="I3" t="n">
-        <v>53</v>
+        <v>339</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>335</v>
       </c>
       <c r="K3" t="s">
-        <v>160</v>
+        <v>336</v>
       </c>
       <c r="L3" t="s">
-        <v>156</v>
+        <v>334</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N3" t="s">
         <v>20</v>
@@ -3257,222 +6205,618 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.672970485692545</v>
+        <v>0.643645863177844</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.8268010550381</v>
+        <v>1.81339351210488</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00130642396276975</v>
+        <v>0.0000646234806479471</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0389314340905386</v>
+        <v>0.00499754917010791</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0360297977100711</v>
+        <v>0.00444428147613952</v>
       </c>
       <c r="I4" t="n">
-        <v>218</v>
+        <v>352</v>
       </c>
       <c r="J4" t="s">
-        <v>161</v>
+        <v>337</v>
       </c>
       <c r="K4" t="s">
-        <v>162</v>
+        <v>338</v>
       </c>
       <c r="L4" t="s">
-        <v>156</v>
+        <v>334</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.449461659589637</v>
+        <v>0.646469606450458</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.64161082153882</v>
+        <v>1.7749191198309</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000945157070655313</v>
+        <v>0.000170156787320052</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0389314340905386</v>
+        <v>0.00986909366456299</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0360297977100711</v>
+        <v>0.00877650797756055</v>
       </c>
       <c r="I5" t="n">
-        <v>650</v>
+        <v>365</v>
       </c>
       <c r="J5" t="s">
-        <v>163</v>
+        <v>341</v>
       </c>
       <c r="K5" t="s">
-        <v>164</v>
+        <v>342</v>
       </c>
       <c r="L5" t="s">
-        <v>156</v>
+        <v>334</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>343</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>344</v>
       </c>
       <c r="C6" t="n">
-        <v>174</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.378935801113564</v>
+        <v>0.765925912796971</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.51471269382349</v>
+        <v>1.78991762657747</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00119890514510661</v>
+        <v>0.000262389094352463</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0389314340905386</v>
+        <v>0.0121748539779543</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0360297977100711</v>
+        <v>0.0108270026301227</v>
       </c>
       <c r="I6" t="n">
-        <v>521</v>
+        <v>259</v>
       </c>
       <c r="J6" t="s">
-        <v>167</v>
+        <v>345</v>
       </c>
       <c r="K6" t="s">
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="L6" t="s">
-        <v>156</v>
+        <v>334</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.568643769163306</v>
+        <v>0.529236376648227</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.98668660244577</v>
+        <v>1.70441486707331</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0000113175183273137</v>
+        <v>0.000325053707874469</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00175421534073363</v>
+        <v>0.0124081984759051</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0016559316289438</v>
+        <v>0.0110345140711316</v>
       </c>
       <c r="I7" t="n">
-        <v>650</v>
+        <v>457</v>
       </c>
       <c r="J7" t="s">
-        <v>169</v>
+        <v>347</v>
       </c>
       <c r="K7" t="s">
-        <v>170</v>
+        <v>348</v>
       </c>
       <c r="L7" t="s">
-        <v>156</v>
+        <v>334</v>
       </c>
       <c r="M7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.730841646687321</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.69406532275472</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.000374385298841965</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0124081984759051</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0110345140711316</v>
+      </c>
+      <c r="I8" t="n">
+        <v>328</v>
+      </c>
+      <c r="J8" t="s">
+        <v>351</v>
+      </c>
+      <c r="K8" t="s">
+        <v>352</v>
+      </c>
+      <c r="L8" t="s">
+        <v>334</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.807685689245452</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.76208918494822</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.000603205906737949</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0174929712954005</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0155563628579787</v>
+      </c>
+      <c r="I9" t="n">
+        <v>202</v>
+      </c>
+      <c r="J9" t="s">
+        <v>353</v>
+      </c>
+      <c r="K9" t="s">
+        <v>354</v>
+      </c>
+      <c r="L9" t="s">
+        <v>334</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="n">
+        <v>31</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.591238552864915</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-2.0118771259479</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.00029141018962214</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0234962317931451</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0217248231373319</v>
+      </c>
+      <c r="I10" t="n">
+        <v>719</v>
+      </c>
+      <c r="J10" t="s">
+        <v>355</v>
+      </c>
+      <c r="K10" t="s">
+        <v>356</v>
+      </c>
+      <c r="L10" t="s">
+        <v>334</v>
+      </c>
+      <c r="M10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" t="n">
+        <v>33</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.630116734930746</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.86985546685579</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.000317516645853312</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0234962317931451</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0217248231373319</v>
+      </c>
+      <c r="I11" t="n">
+        <v>443</v>
+      </c>
+      <c r="J11" t="s">
+        <v>357</v>
+      </c>
+      <c r="K11" t="s">
+        <v>358</v>
+      </c>
+      <c r="L11" t="s">
+        <v>334</v>
+      </c>
+      <c r="M11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" t="n">
+        <v>61</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.601269703394467</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.90267953701796</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0000161984339704379</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.00249455883144743</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.00228483173898808</v>
+      </c>
+      <c r="I12" t="n">
+        <v>461</v>
+      </c>
+      <c r="J12" t="s">
+        <v>359</v>
+      </c>
+      <c r="K12" t="s">
+        <v>360</v>
+      </c>
+      <c r="L12" t="s">
+        <v>334</v>
+      </c>
+      <c r="M12" t="s">
+        <v>151</v>
+      </c>
+      <c r="N12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>361</v>
+      </c>
+      <c r="B13" t="s">
+        <v>362</v>
+      </c>
+      <c r="C13" t="n">
+        <v>29</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.673724537202303</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.90538795294384</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.00011314345314167</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.00871204589190856</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.00797959090578091</v>
+      </c>
+      <c r="I13" t="n">
+        <v>370</v>
+      </c>
+      <c r="J13" t="s">
+        <v>363</v>
+      </c>
+      <c r="K13" t="s">
+        <v>364</v>
+      </c>
+      <c r="L13" t="s">
+        <v>334</v>
+      </c>
+      <c r="M13" t="s">
+        <v>151</v>
+      </c>
+      <c r="N13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
         <v>172</v>
       </c>
-      <c r="C8" t="n">
-        <v>15</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.794606158876773</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-2.06062455278368</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.000116831687862703</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.00905445580935947</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.00854716032258721</v>
-      </c>
-      <c r="I8" t="n">
-        <v>197</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="B14" t="s">
         <v>173</v>
       </c>
-      <c r="K8" t="s">
-        <v>174</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="C14" t="n">
+        <v>46</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.589713330485777</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.79195873303422</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.000233513929866878</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0119870483998331</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.010979251439355</v>
+      </c>
+      <c r="I14" t="n">
+        <v>461</v>
+      </c>
+      <c r="J14" t="s">
+        <v>365</v>
+      </c>
+      <c r="K14" t="s">
+        <v>366</v>
+      </c>
+      <c r="L14" t="s">
+        <v>334</v>
+      </c>
+      <c r="M14" t="s">
+        <v>151</v>
+      </c>
+      <c r="N14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" t="n">
+        <v>282</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.39930988289899</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.49325620394516</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.000338284176555738</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0130239407973959</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.011928968331176</v>
+      </c>
+      <c r="I15" t="n">
+        <v>433</v>
+      </c>
+      <c r="J15" t="s">
+        <v>367</v>
+      </c>
+      <c r="K15" t="s">
+        <v>368</v>
+      </c>
+      <c r="L15" t="s">
+        <v>334</v>
+      </c>
+      <c r="M15" t="s">
+        <v>151</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" t="n">
+        <v>180</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.420493039518178</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.54910686528793</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0010584774006314</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0326011039394472</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0298602045651807</v>
+      </c>
+      <c r="I16" t="n">
+        <v>457</v>
+      </c>
+      <c r="J16" t="s">
+        <v>369</v>
+      </c>
+      <c r="K16" t="s">
+        <v>370</v>
+      </c>
+      <c r="L16" t="s">
+        <v>334</v>
+      </c>
+      <c r="M16" t="s">
+        <v>151</v>
+      </c>
+      <c r="N16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
         <v>156</v>
       </c>
-      <c r="M8" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" t="s">
-        <v>86</v>
+      <c r="B17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" t="n">
+        <v>307</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.377944201342608</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.41066580866454</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.00183105323431741</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0469970330141468</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0430458128769356</v>
+      </c>
+      <c r="I17" t="n">
+        <v>717</v>
+      </c>
+      <c r="J17" t="s">
+        <v>371</v>
+      </c>
+      <c r="K17" t="s">
+        <v>372</v>
+      </c>
+      <c r="L17" t="s">
+        <v>334</v>
+      </c>
+      <c r="M17" t="s">
+        <v>151</v>
+      </c>
+      <c r="N17" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3482,4 +6826,285 @@
     <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" t="n">
+        <v>62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.565375661645235</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1.9198010944767</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0000445895644978468</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.00664384511017917</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.00572623880919717</v>
+      </c>
+      <c r="I2" t="n">
+        <v>535</v>
+      </c>
+      <c r="J2" t="s">
+        <v>373</v>
+      </c>
+      <c r="K2" t="s">
+        <v>374</v>
+      </c>
+      <c r="L2" t="s">
+        <v>375</v>
+      </c>
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.469116380889751</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.72747297741882</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.000277275457645167</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.020657021594565</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0178040030698476</v>
+      </c>
+      <c r="I3" t="n">
+        <v>536</v>
+      </c>
+      <c r="J3" t="s">
+        <v>378</v>
+      </c>
+      <c r="K3" t="s">
+        <v>379</v>
+      </c>
+      <c r="L3" t="s">
+        <v>375</v>
+      </c>
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="n">
+        <v>174</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.417967557575378</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1.58416050881797</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000542639410228869</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0269510907080338</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0232287747536568</v>
+      </c>
+      <c r="I4" t="n">
+        <v>489</v>
+      </c>
+      <c r="J4" t="s">
+        <v>380</v>
+      </c>
+      <c r="K4" t="s">
+        <v>381</v>
+      </c>
+      <c r="L4" t="s">
+        <v>375</v>
+      </c>
+      <c r="M4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" t="n">
+        <v>64</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.578572228165628</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1.97843664099937</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.00000655158847617232</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.00101549621380671</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.000979290066964704</v>
+      </c>
+      <c r="I5" t="n">
+        <v>535</v>
+      </c>
+      <c r="J5" t="s">
+        <v>373</v>
+      </c>
+      <c r="K5" t="s">
+        <v>382</v>
+      </c>
+      <c r="L5" t="s">
+        <v>375</v>
+      </c>
+      <c r="M5" t="s">
+        <v>151</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.775839508329885</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1.94890000917845</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.000201294808582192</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0156003476651199</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0150441383256164</v>
+      </c>
+      <c r="I6" t="n">
+        <v>245</v>
+      </c>
+      <c r="J6" t="s">
+        <v>385</v>
+      </c>
+      <c r="K6" t="s">
+        <v>386</v>
+      </c>
+      <c r="L6" t="s">
+        <v>375</v>
+      </c>
+      <c r="M6" t="s">
+        <v>151</v>
+      </c>
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId8"/>
+  </tableParts>
+</worksheet>
 </file>